--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1487256.415541627</v>
+        <v>1485650.041671512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8663382.396950424</v>
+        <v>8663382.396950426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673445</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>249.896353995044</v>
+        <v>249.8963539950438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>221.8455539522464</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>274.0385580732749</v>
+        <v>228.0008296389813</v>
       </c>
       <c r="G11" t="n">
-        <v>274.6280627301943</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>177.9782427682341</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>12.41413608478909</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.00838398525937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>118.2842935699915</v>
       </c>
       <c r="V11" t="n">
-        <v>194.9147708016983</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>216.4034810489763</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>236.8936130100323</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>253.4004509876168</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>39.87101131987916</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>85.56597684147336</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>24.80759278696436</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>12.2317247249473</v>
+        <v>12.23172472494713</v>
       </c>
       <c r="G12" t="n">
-        <v>3.008755705800994</v>
+        <v>3.008755705800825</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.77493159036192</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143.8719671726935</v>
+        <v>11.03447950425677</v>
       </c>
       <c r="T12" t="n">
-        <v>61.29217693837519</v>
+        <v>167.313131961721</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8428772264371</v>
+        <v>93.00538955800036</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>99.96309948098852</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>118.8574954924829</v>
       </c>
       <c r="X12" t="n">
-        <v>72.93549753504089</v>
+        <v>72.93549753504072</v>
       </c>
       <c r="Y12" t="n">
-        <v>72.84520810886778</v>
+        <v>72.84520810886761</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.99449251350072</v>
+        <v>46.99449251350055</v>
       </c>
       <c r="C13" t="n">
-        <v>34.40933343019125</v>
+        <v>34.40933343019108</v>
       </c>
       <c r="D13" t="n">
-        <v>15.77798534977578</v>
+        <v>15.77798534977561</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>13.59647497813242</v>
       </c>
       <c r="F13" t="n">
-        <v>12.58356035449467</v>
+        <v>12.58356035449449</v>
       </c>
       <c r="G13" t="n">
-        <v>113.8173000685826</v>
+        <v>33.89822764203338</v>
       </c>
       <c r="H13" t="n">
-        <v>18.22924630324952</v>
+        <v>18.22924630324936</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.53108435042746</v>
       </c>
       <c r="J13" t="n">
-        <v>4.612011923876594</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.30328145949746</v>
+        <v>69.3032814594973</v>
       </c>
       <c r="T13" t="n">
-        <v>89.74470082752985</v>
+        <v>89.74470082752968</v>
       </c>
       <c r="U13" t="n">
-        <v>153.4130727399822</v>
+        <v>153.413072739982</v>
       </c>
       <c r="V13" t="n">
-        <v>119.3001556553914</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.6855106681544</v>
+        <v>153.6855106681543</v>
       </c>
       <c r="X13" t="n">
-        <v>92.87216772060057</v>
+        <v>92.8721677206004</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.74716568365821</v>
+        <v>85.74716568365804</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>221.8455539522464</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>249.0928824038252</v>
+        <v>218.6036366158913</v>
       </c>
       <c r="F14" t="n">
-        <v>274.0385580732749</v>
+        <v>274.0385580732747</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>279.6668539790946</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>12.41413608478906</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>118.2842935699916</v>
+        <v>118.2842935699914</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>216.4034810489764</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.8936130100325</v>
+        <v>236.8936130100323</v>
       </c>
       <c r="Y14" t="n">
-        <v>76.74316026234501</v>
+        <v>253.4004509876168</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.69569598143076</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>39.87101131987916</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>14.60757789620217</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>24.80759278696436</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>12.23172472494713</v>
       </c>
       <c r="G15" t="n">
-        <v>3.008755705800994</v>
+        <v>3.008755705800824</v>
       </c>
       <c r="H15" t="n">
-        <v>97.7749315903619</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>37.84575897668471</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.195519430263104</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>143.8719671726935</v>
+        <v>11.03447950425675</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1296646068118</v>
+        <v>61.29217693837502</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8428772264371</v>
+        <v>93.00538955800036</v>
       </c>
       <c r="V15" t="n">
-        <v>99.96309948098869</v>
+        <v>99.96309948098852</v>
       </c>
       <c r="W15" t="n">
-        <v>118.857495492483</v>
+        <v>118.8574954924829</v>
       </c>
       <c r="X15" t="n">
-        <v>133.9151741514389</v>
+        <v>106.048137503627</v>
       </c>
       <c r="Y15" t="n">
-        <v>72.84520810886778</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.99449251350072</v>
+        <v>46.99449251350055</v>
       </c>
       <c r="C16" t="n">
-        <v>34.40933343019125</v>
+        <v>34.40933343019108</v>
       </c>
       <c r="D16" t="n">
-        <v>15.77798534977578</v>
+        <v>15.77798534977561</v>
       </c>
       <c r="E16" t="n">
-        <v>13.59647497813259</v>
+        <v>13.59647497813242</v>
       </c>
       <c r="F16" t="n">
-        <v>12.58356035449467</v>
+        <v>92.50263278104579</v>
       </c>
       <c r="G16" t="n">
-        <v>33.89822764203355</v>
+        <v>166.7357153104701</v>
       </c>
       <c r="H16" t="n">
-        <v>18.22924630324952</v>
+        <v>18.22924630324935</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.61201192387658</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>69.30328145949746</v>
+        <v>69.30328145949728</v>
       </c>
       <c r="T16" t="n">
-        <v>89.74470082752985</v>
+        <v>89.74470082752968</v>
       </c>
       <c r="U16" t="n">
-        <v>153.4130727399822</v>
+        <v>153.413072739982</v>
       </c>
       <c r="V16" t="n">
-        <v>119.3001556553914</v>
+        <v>119.3001556553913</v>
       </c>
       <c r="W16" t="n">
-        <v>153.6855106681544</v>
+        <v>153.6855106681543</v>
       </c>
       <c r="X16" t="n">
-        <v>177.4032520710264</v>
+        <v>92.8721677206004</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.74716568365804</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147.3056211104301</v>
+        <v>147.3056211104299</v>
       </c>
       <c r="C17" t="n">
-        <v>129.8446712179571</v>
+        <v>129.8446712179569</v>
       </c>
       <c r="D17" t="n">
-        <v>119.2548210676325</v>
+        <v>119.2548210676323</v>
       </c>
       <c r="E17" t="n">
-        <v>146.5021495192113</v>
+        <v>66.04202776266428</v>
       </c>
       <c r="F17" t="n">
-        <v>171.447825188661</v>
+        <v>171.4478251886608</v>
       </c>
       <c r="G17" t="n">
-        <v>96.61599933793389</v>
+        <v>177.0761210944807</v>
       </c>
       <c r="H17" t="n">
-        <v>75.38750988362021</v>
+        <v>75.38750988362004</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>15.69356068537773</v>
+        <v>15.69356068537756</v>
       </c>
       <c r="V17" t="n">
-        <v>92.32403791708444</v>
+        <v>92.32403791708427</v>
       </c>
       <c r="W17" t="n">
-        <v>113.8127481643625</v>
+        <v>113.8127481643624</v>
       </c>
       <c r="X17" t="n">
-        <v>134.3028801254186</v>
+        <v>134.3028801254184</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.8097181030031</v>
+        <v>150.809718103003</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>104.9742301532596</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.93295174631278</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>37.84575897668471</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.195519430263104</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>142.7180082053666</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8993302582928</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.140769127934</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.5821884959664</v>
       </c>
       <c r="U19" t="n">
         <v>286.2505604084188</v>
       </c>
       <c r="V19" t="n">
-        <v>16.70942277077754</v>
+        <v>16.70942277077737</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.3056211104301</v>
+        <v>147.3056211104299</v>
       </c>
       <c r="C20" t="n">
-        <v>129.8446712179571</v>
+        <v>129.8446712179569</v>
       </c>
       <c r="D20" t="n">
-        <v>119.2548210676325</v>
+        <v>119.2548210676323</v>
       </c>
       <c r="E20" t="n">
-        <v>66.04202776266384</v>
+        <v>146.5021495192111</v>
       </c>
       <c r="F20" t="n">
-        <v>171.447825188661</v>
+        <v>171.4478251886608</v>
       </c>
       <c r="G20" t="n">
-        <v>177.0761210944809</v>
+        <v>177.0761210944807</v>
       </c>
       <c r="H20" t="n">
-        <v>75.3875098836202</v>
+        <v>75.38750988362003</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>15.69356068537773</v>
+        <v>15.69356068537756</v>
       </c>
       <c r="V20" t="n">
-        <v>92.32403791708444</v>
+        <v>92.32403791708427</v>
       </c>
       <c r="W20" t="n">
-        <v>113.8127481643625</v>
+        <v>113.8127481643624</v>
       </c>
       <c r="X20" t="n">
-        <v>134.3028801254186</v>
+        <v>134.3028801254184</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.8097181030031</v>
+        <v>70.34959634645851</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2160,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>97.77871072299794</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8428772264371</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>185.2493008580402</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7357153104701</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.140769127934</v>
+        <v>102.0143546788978</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5821884959664</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2505604084188</v>
+        <v>50.82233985536814</v>
       </c>
       <c r="V22" t="n">
-        <v>100.8191304880511</v>
+        <v>16.70942277077737</v>
       </c>
       <c r="W22" t="n">
-        <v>51.09477778354054</v>
+        <v>51.09477778354037</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>147.3056211104301</v>
+        <v>147.3056211104299</v>
       </c>
       <c r="C23" t="n">
-        <v>129.8446712179571</v>
+        <v>129.8446712179569</v>
       </c>
       <c r="D23" t="n">
-        <v>119.2548210676325</v>
+        <v>119.2548210676323</v>
       </c>
       <c r="E23" t="n">
-        <v>146.5021495192113</v>
+        <v>146.5021495192111</v>
       </c>
       <c r="F23" t="n">
-        <v>171.447825188661</v>
+        <v>171.4478251886608</v>
       </c>
       <c r="G23" t="n">
-        <v>177.0761210944809</v>
+        <v>177.0761210944807</v>
       </c>
       <c r="H23" t="n">
-        <v>75.3875098836202</v>
+        <v>75.38750988362003</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>15.69356068537773</v>
+        <v>15.69356068537756</v>
       </c>
       <c r="V23" t="n">
-        <v>92.32403791708444</v>
+        <v>92.32403791708427</v>
       </c>
       <c r="W23" t="n">
-        <v>113.8127481643625</v>
+        <v>113.8127481643624</v>
       </c>
       <c r="X23" t="n">
-        <v>134.3028801254186</v>
+        <v>134.3028801254184</v>
       </c>
       <c r="Y23" t="n">
-        <v>150.8097181030031</v>
+        <v>150.809718103003</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>83.9281451530275</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>14.01443945366619</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.61201192387658</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.8521551830625</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.140769127934</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.5821884959664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>98.46213837218387</v>
+        <v>286.2505604084188</v>
       </c>
       <c r="V25" t="n">
-        <v>16.70942277077754</v>
+        <v>16.70942277077737</v>
       </c>
       <c r="W25" t="n">
-        <v>51.09477778354054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.3391340611391</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.6608908686119</v>
+        <v>42.66089086861195</v>
       </c>
       <c r="T29" t="n">
-        <v>108.2551387690822</v>
+        <v>108.2551387690823</v>
       </c>
       <c r="U29" t="n">
-        <v>148.5310483538143</v>
+        <v>148.5310483538144</v>
       </c>
       <c r="V29" t="n">
         <v>225.161525585521</v>
       </c>
       <c r="W29" t="n">
-        <v>246.6502358327991</v>
+        <v>246.6502358327992</v>
       </c>
       <c r="X29" t="n">
         <v>267.1403677938551</v>
       </c>
       <c r="Y29" t="n">
-        <v>283.6472057714397</v>
+        <v>283.6472057714398</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.2412472973234</v>
+        <v>77.24124729732344</v>
       </c>
       <c r="C31" t="n">
-        <v>64.65608821401393</v>
+        <v>64.65608821401398</v>
       </c>
       <c r="D31" t="n">
-        <v>46.02474013359846</v>
+        <v>46.0247401335985</v>
       </c>
       <c r="E31" t="n">
-        <v>43.84322976195527</v>
+        <v>43.84322976195531</v>
       </c>
       <c r="F31" t="n">
-        <v>42.83031513831735</v>
+        <v>42.83031513831739</v>
       </c>
       <c r="G31" t="n">
-        <v>64.14498242585623</v>
+        <v>64.14498242585627</v>
       </c>
       <c r="H31" t="n">
-        <v>48.47600108707221</v>
+        <v>48.47600108707225</v>
       </c>
       <c r="I31" t="n">
-        <v>15.11052867222264</v>
+        <v>15.11052867222268</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.26142229844861</v>
+        <v>18.26142229844866</v>
       </c>
       <c r="S31" t="n">
-        <v>99.55003624332014</v>
+        <v>99.55003624332018</v>
       </c>
       <c r="T31" t="n">
-        <v>119.9914556113525</v>
+        <v>119.9914556113526</v>
       </c>
       <c r="U31" t="n">
         <v>183.6598275238049</v>
@@ -3029,10 +3029,10 @@
         <v>280.1431087788667</v>
       </c>
       <c r="C32" t="n">
-        <v>262.6821588863936</v>
+        <v>262.6821588863937</v>
       </c>
       <c r="D32" t="n">
-        <v>252.092308736069</v>
+        <v>252.0923087360691</v>
       </c>
       <c r="E32" t="n">
         <v>279.3396371876479</v>
@@ -3041,10 +3041,10 @@
         <v>304.2853128570976</v>
       </c>
       <c r="G32" t="n">
-        <v>309.9136087629174</v>
+        <v>309.9136087629175</v>
       </c>
       <c r="H32" t="n">
-        <v>208.2249975520567</v>
+        <v>208.2249975520568</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.66089086861189</v>
+        <v>42.6608908686119</v>
       </c>
       <c r="T32" t="n">
         <v>108.2551387690822</v>
@@ -3095,7 +3095,7 @@
         <v>267.1403677938551</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.6472057714396</v>
+        <v>283.6472057714397</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.24124729732338</v>
+        <v>77.2412472973234</v>
       </c>
       <c r="C34" t="n">
-        <v>64.65608821401392</v>
+        <v>64.65608821401393</v>
       </c>
       <c r="D34" t="n">
-        <v>46.02474013359844</v>
+        <v>46.02474013359846</v>
       </c>
       <c r="E34" t="n">
-        <v>43.84322976195526</v>
+        <v>43.84322976195527</v>
       </c>
       <c r="F34" t="n">
-        <v>42.83031513831733</v>
+        <v>42.83031513831735</v>
       </c>
       <c r="G34" t="n">
-        <v>64.14498242585621</v>
+        <v>64.14498242585623</v>
       </c>
       <c r="H34" t="n">
-        <v>48.47600108707219</v>
+        <v>48.47600108707221</v>
       </c>
       <c r="I34" t="n">
-        <v>15.11052867222262</v>
+        <v>15.11052867222264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.2614222984486</v>
+        <v>18.26142229844861</v>
       </c>
       <c r="S34" t="n">
-        <v>99.55003624332012</v>
+        <v>99.55003624332014</v>
       </c>
       <c r="T34" t="n">
         <v>119.9914556113525</v>
@@ -3250,7 +3250,7 @@
         <v>183.9322654519771</v>
       </c>
       <c r="X34" t="n">
-        <v>123.1189225044232</v>
+        <v>123.1189225044233</v>
       </c>
       <c r="Y34" t="n">
         <v>115.9939204674809</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>176.2476740517836</v>
+        <v>176.2476740517837</v>
       </c>
       <c r="C35" t="n">
-        <v>158.7867241593106</v>
+        <v>158.7867241593107</v>
       </c>
       <c r="D35" t="n">
-        <v>148.196874008986</v>
+        <v>148.1968740089861</v>
       </c>
       <c r="E35" t="n">
-        <v>175.4442024605648</v>
+        <v>175.444202460565</v>
       </c>
       <c r="F35" t="n">
-        <v>200.3898781300145</v>
+        <v>200.3898781300146</v>
       </c>
       <c r="G35" t="n">
-        <v>206.0181740358344</v>
+        <v>206.0181740358345</v>
       </c>
       <c r="H35" t="n">
-        <v>104.3295628249737</v>
+        <v>104.3295628249738</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.359704041999152</v>
+        <v>4.359704041999294</v>
       </c>
       <c r="U35" t="n">
-        <v>44.63561362673123</v>
+        <v>44.63561362673137</v>
       </c>
       <c r="V35" t="n">
-        <v>121.2660908584379</v>
+        <v>121.2660908584381</v>
       </c>
       <c r="W35" t="n">
-        <v>142.754801105716</v>
+        <v>142.7548011057162</v>
       </c>
       <c r="X35" t="n">
-        <v>163.2449330667721</v>
+        <v>163.2449330667722</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.7517710443566</v>
+        <v>179.7517710443568</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3393,13 +3393,13 @@
         <v>7.195519430263104</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.8719671726935</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>132.8781916424838</v>
+        <v>161.7147234581077</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7357153104701</v>
+        <v>109.1081691760341</v>
       </c>
       <c r="H37" t="n">
-        <v>117.859035563739</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.140769127934</v>
       </c>
       <c r="T37" t="n">
-        <v>16.09602088426946</v>
+        <v>16.09602088426961</v>
       </c>
       <c r="U37" t="n">
-        <v>79.76439279672181</v>
+        <v>79.76439279672195</v>
       </c>
       <c r="V37" t="n">
-        <v>45.65147571213103</v>
+        <v>45.65147571213117</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>12.09848574039796</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.2476740517836</v>
+        <v>176.2476740517837</v>
       </c>
       <c r="C38" t="n">
-        <v>158.7867241593106</v>
+        <v>158.7867241593107</v>
       </c>
       <c r="D38" t="n">
-        <v>148.196874008986</v>
+        <v>148.1968740089861</v>
       </c>
       <c r="E38" t="n">
-        <v>175.4442024605648</v>
+        <v>175.444202460565</v>
       </c>
       <c r="F38" t="n">
-        <v>200.3898781300145</v>
+        <v>200.3898781300146</v>
       </c>
       <c r="G38" t="n">
-        <v>206.0181740358344</v>
+        <v>206.0181740358345</v>
       </c>
       <c r="H38" t="n">
-        <v>104.3295628249737</v>
+        <v>104.3295628249738</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>4.359704041999152</v>
+        <v>4.359704041999294</v>
       </c>
       <c r="U38" t="n">
-        <v>44.63561362673124</v>
+        <v>44.63561362673138</v>
       </c>
       <c r="V38" t="n">
-        <v>121.2660908584379</v>
+        <v>121.2660908584381</v>
       </c>
       <c r="W38" t="n">
-        <v>142.754801105716</v>
+        <v>142.7548011057162</v>
       </c>
       <c r="X38" t="n">
-        <v>163.2449330667721</v>
+        <v>163.2449330667722</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.7517710443566</v>
+        <v>179.7517710443568</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>7.195519430263104</v>
       </c>
       <c r="S39" t="n">
-        <v>143.8719671726935</v>
+        <v>52.10452680943304</v>
       </c>
       <c r="T39" t="n">
-        <v>117.0945804196898</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>19.35670961474015</v>
+        <v>225.8428772264371</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.0667339716861</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.09602088426946</v>
+        <v>16.09602088426961</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2505604084188</v>
+        <v>79.76439279672195</v>
       </c>
       <c r="V40" t="n">
-        <v>45.65147571213103</v>
+        <v>45.65147571213117</v>
       </c>
       <c r="W40" t="n">
-        <v>80.03683072489403</v>
+        <v>80.03683072489417</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>221.0962995761651</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.2806900726806</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>148.1968740089861</v>
       </c>
       <c r="E41" t="n">
-        <v>175.4442024605649</v>
+        <v>175.444202460565</v>
       </c>
       <c r="F41" t="n">
         <v>200.3898781300146</v>
       </c>
       <c r="G41" t="n">
-        <v>206.0181740358344</v>
+        <v>206.0181740358345</v>
       </c>
       <c r="H41" t="n">
         <v>104.3295628249738</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.359704041999237</v>
+        <v>4.359704041999294</v>
       </c>
       <c r="U41" t="n">
-        <v>44.63561362673131</v>
+        <v>44.63561362673137</v>
       </c>
       <c r="V41" t="n">
-        <v>121.266090858438</v>
+        <v>121.2660908584381</v>
       </c>
       <c r="W41" t="n">
-        <v>142.7548011057161</v>
+        <v>142.7548011057162</v>
       </c>
       <c r="X41" t="n">
-        <v>163.2449330667721</v>
+        <v>163.2449330667722</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.7517710443567</v>
+        <v>179.7517710443568</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.7749315903619</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.8719671726935</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1296646068118</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8428772264371</v>
+        <v>140.0737110727497</v>
       </c>
       <c r="V42" t="n">
-        <v>50.49654026405177</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.45398174627461</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7357153104701</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0667339716861</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>202.140769127934</v>
       </c>
       <c r="T43" t="n">
-        <v>16.09602088426955</v>
+        <v>222.5821884959664</v>
       </c>
       <c r="U43" t="n">
-        <v>79.76439279672189</v>
+        <v>286.2505604084188</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>80.03683072489412</v>
+        <v>80.03683072489417</v>
       </c>
       <c r="X43" t="n">
-        <v>19.22348777734027</v>
+        <v>19.22348777734032</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.61009435097571</v>
+        <v>12.09848574039796</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>200.3898781300146</v>
       </c>
       <c r="G44" t="n">
-        <v>206.0181740358345</v>
+        <v>206.0181740358344</v>
       </c>
       <c r="H44" t="n">
         <v>104.3295628249738</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.359704041998507</v>
+        <v>4.359704041999237</v>
       </c>
       <c r="U44" t="n">
-        <v>44.63561362673133</v>
+        <v>44.63561362673131</v>
       </c>
       <c r="V44" t="n">
         <v>121.266090858438</v>
@@ -4056,10 +4056,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8462433742376</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.7749315903619</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>7.195519430263104</v>
       </c>
       <c r="S45" t="n">
-        <v>143.8719671726935</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>75.53861405814608</v>
+        <v>132.8781916424847</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.7627706922716</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.09602088426955</v>
+        <v>222.5821884959664</v>
       </c>
       <c r="U46" t="n">
-        <v>79.76439279672189</v>
+        <v>286.2505604084188</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>80.03683072489412</v>
       </c>
       <c r="X46" t="n">
-        <v>221.0962995761654</v>
+        <v>19.22348777734027</v>
       </c>
       <c r="Y46" t="n">
         <v>12.0984857403979</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>986.7930736135687</v>
+        <v>259.0258131237018</v>
       </c>
       <c r="C11" t="n">
-        <v>986.7930736135687</v>
+        <v>259.0258131237018</v>
       </c>
       <c r="D11" t="n">
-        <v>762.7066554799865</v>
+        <v>259.0258131237018</v>
       </c>
       <c r="E11" t="n">
-        <v>762.7066554799865</v>
+        <v>259.0258131237018</v>
       </c>
       <c r="F11" t="n">
-        <v>485.9000311635472</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="G11" t="n">
-        <v>208.4979475976943</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="H11" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I11" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J11" t="n">
-        <v>84.62174707542908</v>
+        <v>84.62174707542897</v>
       </c>
       <c r="K11" t="n">
-        <v>219.139578401157</v>
+        <v>219.1395784011564</v>
       </c>
       <c r="L11" t="n">
-        <v>422.9226048989732</v>
+        <v>422.9226048989731</v>
       </c>
       <c r="M11" t="n">
-        <v>681.3399241074691</v>
+        <v>681.3399241074685</v>
       </c>
       <c r="N11" t="n">
-        <v>948.5525140865808</v>
+        <v>948.5525140865801</v>
       </c>
       <c r="O11" t="n">
-        <v>1187.538524299448</v>
+        <v>1187.538524299447</v>
       </c>
       <c r="P11" t="n">
-        <v>1357.006554020417</v>
+        <v>1357.006554020415</v>
       </c>
       <c r="Q11" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="R11" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S11" t="n">
-        <v>1436.097240074925</v>
+        <v>1423.557708676146</v>
       </c>
       <c r="T11" t="n">
-        <v>1436.097240074925</v>
+        <v>1344.761361216288</v>
       </c>
       <c r="U11" t="n">
-        <v>1436.097240074925</v>
+        <v>1225.282276802156</v>
       </c>
       <c r="V11" t="n">
-        <v>1239.213633204522</v>
+        <v>1225.282276802156</v>
       </c>
       <c r="W11" t="n">
-        <v>1239.213633204522</v>
+        <v>1006.69290200521</v>
       </c>
       <c r="X11" t="n">
-        <v>1239.213633204522</v>
+        <v>767.4064242172985</v>
       </c>
       <c r="Y11" t="n">
-        <v>1239.213633204522</v>
+        <v>511.4463727146552</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.8785724571199</v>
+        <v>625.5038205888371</v>
       </c>
       <c r="C12" t="n">
-        <v>155.6048236491611</v>
+        <v>451.0507913077101</v>
       </c>
       <c r="D12" t="n">
-        <v>69.17454401130927</v>
+        <v>302.1163816464589</v>
       </c>
       <c r="E12" t="n">
-        <v>44.11636947902203</v>
+        <v>142.8789266410034</v>
       </c>
       <c r="F12" t="n">
-        <v>31.76109197907526</v>
+        <v>130.5236491410568</v>
       </c>
       <c r="G12" t="n">
-        <v>28.72194480149849</v>
+        <v>127.4845019634802</v>
       </c>
       <c r="H12" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I12" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0277621138804</v>
+        <v>145.6603258174824</v>
       </c>
       <c r="K12" t="n">
-        <v>270.9238506772252</v>
+        <v>248.5564143808271</v>
       </c>
       <c r="L12" t="n">
-        <v>455.6028810718174</v>
+        <v>433.2354447754192</v>
       </c>
       <c r="M12" t="n">
-        <v>690.4714669674574</v>
+        <v>668.1040306710591</v>
       </c>
       <c r="N12" t="n">
-        <v>945.9649703742134</v>
+        <v>1023.538097589603</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.471816085254</v>
+        <v>1235.044943300644</v>
       </c>
       <c r="P12" t="n">
-        <v>1307.891640297988</v>
+        <v>1385.464767513378</v>
       </c>
       <c r="Q12" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="R12" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S12" t="n">
-        <v>1290.772020708568</v>
+        <v>1424.951301181735</v>
       </c>
       <c r="T12" t="n">
-        <v>1228.860730871825</v>
+        <v>1255.948137584037</v>
       </c>
       <c r="U12" t="n">
-        <v>1000.736612461283</v>
+        <v>1162.003299646663</v>
       </c>
       <c r="V12" t="n">
-        <v>765.5845042295398</v>
+        <v>1061.030471888088</v>
       </c>
       <c r="W12" t="n">
-        <v>511.3471475013382</v>
+        <v>940.9723956330549</v>
       </c>
       <c r="X12" t="n">
-        <v>437.6749277689736</v>
+        <v>867.3001759006905</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.0939094771879</v>
+        <v>793.7191576089051</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378.0789145759829</v>
+        <v>243.8996341028154</v>
       </c>
       <c r="C13" t="n">
-        <v>343.3220121212443</v>
+        <v>209.142731648077</v>
       </c>
       <c r="D13" t="n">
-        <v>327.3846531820769</v>
+        <v>193.2053727089097</v>
       </c>
       <c r="E13" t="n">
-        <v>179.4715595996838</v>
+        <v>179.471559599685</v>
       </c>
       <c r="F13" t="n">
-        <v>166.7608925749417</v>
+        <v>166.7608925749431</v>
       </c>
       <c r="G13" t="n">
-        <v>51.79392280869659</v>
+        <v>132.5202585930912</v>
       </c>
       <c r="H13" t="n">
-        <v>33.38054270440414</v>
+        <v>114.1068784887989</v>
       </c>
       <c r="I13" t="n">
-        <v>33.38054270440414</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J13" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="K13" t="n">
         <v>151.0556186935267</v>
       </c>
       <c r="L13" t="n">
-        <v>363.1270378684943</v>
+        <v>363.1270378684942</v>
       </c>
       <c r="M13" t="n">
-        <v>597.1157378759281</v>
+        <v>597.1157378759278</v>
       </c>
       <c r="N13" t="n">
-        <v>830.9753260094981</v>
+        <v>830.9753260094978</v>
       </c>
       <c r="O13" t="n">
         <v>1030.966211407542</v>
       </c>
       <c r="P13" t="n">
-        <v>1178.572281129754</v>
+        <v>1178.572281129753</v>
       </c>
       <c r="Q13" t="n">
-        <v>1197.331992624786</v>
+        <v>1197.331992624785</v>
       </c>
       <c r="R13" t="n">
-        <v>1197.331992624786</v>
+        <v>1197.331992624785</v>
       </c>
       <c r="S13" t="n">
-        <v>1127.328678019233</v>
+        <v>1127.328678019232</v>
       </c>
       <c r="T13" t="n">
         <v>1036.677465062132</v>
       </c>
       <c r="U13" t="n">
-        <v>881.7147653247762</v>
+        <v>881.7147653247763</v>
       </c>
       <c r="V13" t="n">
-        <v>761.2095575920575</v>
+        <v>627.0302771188894</v>
       </c>
       <c r="W13" t="n">
-        <v>605.9716680282652</v>
+        <v>471.7923875550973</v>
       </c>
       <c r="X13" t="n">
-        <v>512.1613976034162</v>
+        <v>377.9821171302484</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.5480989330543</v>
+        <v>291.3688184598867</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.2239593765959</v>
+        <v>808.8320949714589</v>
       </c>
       <c r="C14" t="n">
-        <v>781.2239593765959</v>
+        <v>808.8320949714589</v>
       </c>
       <c r="D14" t="n">
-        <v>557.1375412430137</v>
+        <v>808.8320949714589</v>
       </c>
       <c r="E14" t="n">
-        <v>305.5285691179378</v>
+        <v>588.0203408139929</v>
       </c>
       <c r="F14" t="n">
-        <v>28.72194480149849</v>
+        <v>311.2137164975536</v>
       </c>
       <c r="G14" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="H14" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I14" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J14" t="n">
-        <v>84.62174707542906</v>
+        <v>84.62174707542908</v>
       </c>
       <c r="K14" t="n">
         <v>219.1395784011567</v>
       </c>
       <c r="L14" t="n">
-        <v>422.9226048989726</v>
+        <v>422.922604898973</v>
       </c>
       <c r="M14" t="n">
-        <v>681.3399241074688</v>
+        <v>681.339924107469</v>
       </c>
       <c r="N14" t="n">
-        <v>948.5525140865806</v>
+        <v>948.5525140865808</v>
       </c>
       <c r="O14" t="n">
         <v>1187.538524299448</v>
@@ -5300,28 +5300,28 @@
         <v>1436.097240074925</v>
       </c>
       <c r="R14" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S14" t="n">
-        <v>1436.097240074925</v>
+        <v>1423.557708676147</v>
       </c>
       <c r="T14" t="n">
-        <v>1436.097240074925</v>
+        <v>1423.557708676147</v>
       </c>
       <c r="U14" t="n">
-        <v>1316.618155660792</v>
+        <v>1304.078624262014</v>
       </c>
       <c r="V14" t="n">
-        <v>1316.618155660792</v>
+        <v>1304.078624262014</v>
       </c>
       <c r="W14" t="n">
-        <v>1098.028780863846</v>
+        <v>1304.078624262014</v>
       </c>
       <c r="X14" t="n">
-        <v>858.7423030759343</v>
+        <v>1064.792146474102</v>
       </c>
       <c r="Y14" t="n">
-        <v>781.2239593765959</v>
+        <v>808.8320949714589</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>395.3732990128896</v>
+        <v>564.969302797244</v>
       </c>
       <c r="C15" t="n">
-        <v>355.0995502049308</v>
+        <v>390.5162735161171</v>
       </c>
       <c r="D15" t="n">
-        <v>340.3444210168478</v>
+        <v>241.5818638548658</v>
       </c>
       <c r="E15" t="n">
-        <v>315.2862464845606</v>
+        <v>82.34440884941026</v>
       </c>
       <c r="F15" t="n">
-        <v>168.7516885114456</v>
+        <v>69.98913134946366</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7125413338688</v>
+        <v>66.94998417188707</v>
       </c>
       <c r="H15" t="n">
-        <v>66.9499841718871</v>
+        <v>66.94998417188707</v>
       </c>
       <c r="I15" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J15" t="n">
-        <v>43.19763712687569</v>
+        <v>43.19763712687566</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0937256902206</v>
+        <v>348.4969778926138</v>
       </c>
       <c r="L15" t="n">
-        <v>330.7727560848128</v>
+        <v>533.1760082872061</v>
       </c>
       <c r="M15" t="n">
-        <v>565.641341980453</v>
+        <v>768.0445941828463</v>
       </c>
       <c r="N15" t="n">
-        <v>821.134845387209</v>
+        <v>1023.538097589602</v>
       </c>
       <c r="O15" t="n">
-        <v>1032.64169109825</v>
+        <v>1235.044943300643</v>
       </c>
       <c r="P15" t="n">
-        <v>1183.061515310984</v>
+        <v>1385.464767513377</v>
       </c>
       <c r="Q15" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="R15" t="n">
-        <v>1428.829038630214</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S15" t="n">
-        <v>1283.503819263857</v>
+        <v>1424.951301181735</v>
       </c>
       <c r="T15" t="n">
-        <v>1087.413248953947</v>
+        <v>1363.040011344992</v>
       </c>
       <c r="U15" t="n">
-        <v>859.289130543404</v>
+        <v>1269.095173407618</v>
       </c>
       <c r="V15" t="n">
-        <v>758.3163027848295</v>
+        <v>1168.122345649044</v>
       </c>
       <c r="W15" t="n">
-        <v>638.2582265297962</v>
+        <v>1048.06426939401</v>
       </c>
       <c r="X15" t="n">
-        <v>502.990373851575</v>
+        <v>940.9449385822659</v>
       </c>
       <c r="Y15" t="n">
-        <v>429.4093555597893</v>
+        <v>733.184639817312</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.514700415516</v>
+        <v>378.0789145759843</v>
       </c>
       <c r="C16" t="n">
-        <v>123.7577979607774</v>
+        <v>343.3220121212458</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8204390216099</v>
+        <v>327.3846531820786</v>
       </c>
       <c r="E16" t="n">
-        <v>94.0866259123851</v>
+        <v>313.6508400728539</v>
       </c>
       <c r="F16" t="n">
-        <v>81.37595888764301</v>
+        <v>220.2138372637167</v>
       </c>
       <c r="G16" t="n">
-        <v>47.13532490579095</v>
+        <v>51.79392280869638</v>
       </c>
       <c r="H16" t="n">
-        <v>28.72194480149849</v>
+        <v>33.3805427044041</v>
       </c>
       <c r="I16" t="n">
-        <v>28.72194480149849</v>
+        <v>33.3805427044041</v>
       </c>
       <c r="J16" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0556186935268</v>
+        <v>151.0556186935267</v>
       </c>
       <c r="L16" t="n">
-        <v>363.1270378684944</v>
+        <v>363.1270378684943</v>
       </c>
       <c r="M16" t="n">
-        <v>597.1157378759282</v>
+        <v>597.1157378759281</v>
       </c>
       <c r="N16" t="n">
-        <v>830.9753260094982</v>
+        <v>830.9753260094981</v>
       </c>
       <c r="O16" t="n">
-        <v>1030.966211407543</v>
+        <v>1030.966211407542</v>
       </c>
       <c r="P16" t="n">
         <v>1178.572281129754</v>
@@ -5467,19 +5467,19 @@
         <v>1036.677465062132</v>
       </c>
       <c r="U16" t="n">
-        <v>881.7147653247764</v>
+        <v>881.7147653247767</v>
       </c>
       <c r="V16" t="n">
-        <v>761.2095575920578</v>
+        <v>761.2095575920583</v>
       </c>
       <c r="W16" t="n">
-        <v>605.9716680282654</v>
+        <v>605.9716680282661</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7764639161176</v>
+        <v>512.1613976034172</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.9838847725875</v>
+        <v>425.5480989330555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>775.2401025944436</v>
+        <v>775.2401025944432</v>
       </c>
       <c r="C17" t="n">
-        <v>644.0838690409515</v>
+        <v>644.0838690409514</v>
       </c>
       <c r="D17" t="n">
         <v>523.6244538211207</v>
       </c>
       <c r="E17" t="n">
-        <v>375.6424846097962</v>
+        <v>456.9153348689343</v>
       </c>
       <c r="F17" t="n">
-        <v>202.4628632071083</v>
+        <v>283.7357134662466</v>
       </c>
       <c r="G17" t="n">
-        <v>104.8709446839432</v>
+        <v>104.870944683943</v>
       </c>
       <c r="H17" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I17" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J17" t="n">
-        <v>84.62174707542911</v>
+        <v>84.62174707542908</v>
       </c>
       <c r="K17" t="n">
         <v>219.1395784011567</v>
@@ -5537,28 +5537,28 @@
         <v>1436.097240074925</v>
       </c>
       <c r="R17" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S17" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="T17" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="U17" t="n">
-        <v>1420.245158574543</v>
+        <v>1420.245158574542</v>
       </c>
       <c r="V17" t="n">
-        <v>1326.988554617892</v>
+        <v>1326.988554617891</v>
       </c>
       <c r="W17" t="n">
-        <v>1212.026182734698</v>
+        <v>1212.026182734697</v>
       </c>
       <c r="X17" t="n">
-        <v>1076.366707860538</v>
+        <v>1076.366707860537</v>
       </c>
       <c r="Y17" t="n">
-        <v>924.0336592716457</v>
+        <v>924.0336592716451</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.4883192691727</v>
+        <v>134.7565207138819</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4883192691727</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="D18" t="n">
-        <v>127.4883192691727</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="E18" t="n">
-        <v>127.4883192691727</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="F18" t="n">
-        <v>127.4883192691727</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4883192691727</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="H18" t="n">
-        <v>66.9499841718871</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I18" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J18" t="n">
-        <v>43.19763712687569</v>
+        <v>43.19763712687566</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0937256902206</v>
+        <v>146.0937256902205</v>
       </c>
       <c r="L18" t="n">
-        <v>501.5277926087645</v>
+        <v>330.7727560848128</v>
       </c>
       <c r="M18" t="n">
-        <v>736.3963785044045</v>
+        <v>565.6413419804529</v>
       </c>
       <c r="N18" t="n">
-        <v>991.8898819111605</v>
+        <v>821.1348453872089</v>
       </c>
       <c r="O18" t="n">
-        <v>1203.396727622202</v>
+        <v>1176.568912305752</v>
       </c>
       <c r="P18" t="n">
-        <v>1385.464767513379</v>
+        <v>1385.464767513377</v>
       </c>
       <c r="Q18" t="n">
-        <v>1436.097240074925</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="R18" t="n">
-        <v>1428.829038630214</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="S18" t="n">
-        <v>1428.829038630214</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="T18" t="n">
-        <v>1428.829038630214</v>
+        <v>1436.097240074923</v>
       </c>
       <c r="U18" t="n">
-        <v>1200.704920219672</v>
+        <v>1207.973121664381</v>
       </c>
       <c r="V18" t="n">
-        <v>965.5528119879291</v>
+        <v>972.8210134326382</v>
       </c>
       <c r="W18" t="n">
-        <v>711.3154552597275</v>
+        <v>718.5836567044366</v>
       </c>
       <c r="X18" t="n">
-        <v>503.4639550541947</v>
+        <v>510.7321564989038</v>
       </c>
       <c r="Y18" t="n">
-        <v>295.7036562892408</v>
+        <v>302.9718577339499</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.2566218300771</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="C19" t="n">
-        <v>192.2566218300771</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="D19" t="n">
-        <v>192.2566218300771</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="E19" t="n">
-        <v>192.2566218300771</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="F19" t="n">
-        <v>192.2566218300771</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="G19" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="H19" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="I19" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="J19" t="n">
-        <v>28.72194480149849</v>
+        <v>28.72194480149847</v>
       </c>
       <c r="K19" t="n">
-        <v>151.0556186935268</v>
+        <v>151.0556186935267</v>
       </c>
       <c r="L19" t="n">
-        <v>363.1270378684944</v>
+        <v>363.1270378684943</v>
       </c>
       <c r="M19" t="n">
-        <v>597.1157378759282</v>
+        <v>597.1157378759281</v>
       </c>
       <c r="N19" t="n">
-        <v>830.9753260094982</v>
+        <v>830.9753260094981</v>
       </c>
       <c r="O19" t="n">
-        <v>1030.966211407543</v>
+        <v>1030.966211407542</v>
       </c>
       <c r="P19" t="n">
         <v>1178.572281129754</v>
@@ -5698,25 +5698,25 @@
         <v>1197.331992624786</v>
       </c>
       <c r="S19" t="n">
-        <v>1197.331992624786</v>
+        <v>993.1493975460644</v>
       </c>
       <c r="T19" t="n">
-        <v>1197.331992624786</v>
+        <v>768.3189041157952</v>
       </c>
       <c r="U19" t="n">
-        <v>908.1900124142619</v>
+        <v>479.1769239052712</v>
       </c>
       <c r="V19" t="n">
-        <v>891.3118075952947</v>
+        <v>462.2987190863042</v>
       </c>
       <c r="W19" t="n">
-        <v>601.8946375583341</v>
+        <v>172.8815490493436</v>
       </c>
       <c r="X19" t="n">
-        <v>373.9050866603168</v>
+        <v>172.8815490493436</v>
       </c>
       <c r="Y19" t="n">
-        <v>373.9050866603168</v>
+        <v>172.8815490493436</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>775.2401025944436</v>
+        <v>856.5129528535812</v>
       </c>
       <c r="C20" t="n">
-        <v>644.0838690409516</v>
+        <v>725.3567193000893</v>
       </c>
       <c r="D20" t="n">
-        <v>523.6244538211206</v>
+        <v>604.8973040802587</v>
       </c>
       <c r="E20" t="n">
-        <v>456.9153348689348</v>
+        <v>456.9153348689342</v>
       </c>
       <c r="F20" t="n">
-        <v>283.735713466247</v>
+        <v>283.7357134662466</v>
       </c>
       <c r="G20" t="n">
-        <v>104.8709446839431</v>
+        <v>104.870944683943</v>
       </c>
       <c r="H20" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="I20" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="J20" t="n">
-        <v>84.6217470754288</v>
+        <v>84.62174707542908</v>
       </c>
       <c r="K20" t="n">
-        <v>219.1395784011564</v>
+        <v>219.139578401157</v>
       </c>
       <c r="L20" t="n">
-        <v>422.9226048989727</v>
+        <v>422.9226048989731</v>
       </c>
       <c r="M20" t="n">
-        <v>681.3399241074687</v>
+        <v>681.3399241074691</v>
       </c>
       <c r="N20" t="n">
-        <v>948.5525140865806</v>
+        <v>948.5525140865809</v>
       </c>
       <c r="O20" t="n">
         <v>1187.538524299448</v>
@@ -5783,19 +5783,19 @@
         <v>1436.097240074925</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.245158574543</v>
+        <v>1420.245158574544</v>
       </c>
       <c r="V20" t="n">
-        <v>1326.988554617892</v>
+        <v>1326.988554617893</v>
       </c>
       <c r="W20" t="n">
-        <v>1212.026182734698</v>
+        <v>1212.026182734699</v>
       </c>
       <c r="X20" t="n">
-        <v>1076.366707860538</v>
+        <v>1076.366707860539</v>
       </c>
       <c r="Y20" t="n">
-        <v>924.0336592716457</v>
+        <v>1005.306509530783</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.8813967224473</v>
+        <v>127.4883192691732</v>
       </c>
       <c r="C21" t="n">
-        <v>483.4283674413203</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="D21" t="n">
-        <v>334.493957780069</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="E21" t="n">
-        <v>175.2565027746135</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="F21" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="G21" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="H21" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="I21" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="J21" t="n">
-        <v>43.19763712687569</v>
+        <v>43.1976371268757</v>
       </c>
       <c r="K21" t="n">
-        <v>348.4969778926152</v>
+        <v>146.0937256902206</v>
       </c>
       <c r="L21" t="n">
-        <v>533.1760082872074</v>
+        <v>330.7727560848128</v>
       </c>
       <c r="M21" t="n">
-        <v>768.0445941828476</v>
+        <v>565.641341980453</v>
       </c>
       <c r="N21" t="n">
-        <v>1023.538097589604</v>
+        <v>821.134845387209</v>
       </c>
       <c r="O21" t="n">
-        <v>1235.044943300645</v>
+        <v>1032.64169109825</v>
       </c>
       <c r="P21" t="n">
-        <v>1385.464767513379</v>
+        <v>1183.061515310984</v>
       </c>
       <c r="Q21" t="n">
         <v>1436.097240074925</v>
       </c>
       <c r="R21" t="n">
-        <v>1428.829038630214</v>
+        <v>1428.829038630215</v>
       </c>
       <c r="S21" t="n">
-        <v>1428.829038630214</v>
+        <v>1428.829038630215</v>
       </c>
       <c r="T21" t="n">
-        <v>1428.829038630214</v>
+        <v>1428.829038630215</v>
       </c>
       <c r="U21" t="n">
-        <v>1428.829038630214</v>
+        <v>1200.704920219672</v>
       </c>
       <c r="V21" t="n">
-        <v>1428.829038630214</v>
+        <v>965.5528119879295</v>
       </c>
       <c r="W21" t="n">
-        <v>1241.708532713002</v>
+        <v>711.315455259728</v>
       </c>
       <c r="X21" t="n">
-        <v>1033.857032507469</v>
+        <v>503.4639550541951</v>
       </c>
       <c r="Y21" t="n">
-        <v>826.0967337425154</v>
+        <v>295.7036562892412</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>325.7285317117446</v>
+        <v>344.0318067544292</v>
       </c>
       <c r="C22" t="n">
-        <v>325.7285317117446</v>
+        <v>344.0318067544292</v>
       </c>
       <c r="D22" t="n">
-        <v>175.6118922994089</v>
+        <v>344.0318067544292</v>
       </c>
       <c r="E22" t="n">
-        <v>175.6118922994089</v>
+        <v>344.0318067544292</v>
       </c>
       <c r="F22" t="n">
-        <v>28.72194480149849</v>
+        <v>197.1418592565188</v>
       </c>
       <c r="G22" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="H22" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="I22" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="J22" t="n">
-        <v>28.72194480149849</v>
+        <v>28.7219448014985</v>
       </c>
       <c r="K22" t="n">
         <v>151.0556186935268</v>
@@ -5935,25 +5935,25 @@
         <v>1197.331992624786</v>
       </c>
       <c r="S22" t="n">
-        <v>993.1493975460646</v>
+        <v>1094.287189918829</v>
       </c>
       <c r="T22" t="n">
-        <v>768.3189041157955</v>
+        <v>1094.287189918829</v>
       </c>
       <c r="U22" t="n">
-        <v>479.1769239052715</v>
+        <v>1042.951493095224</v>
       </c>
       <c r="V22" t="n">
-        <v>377.3394183617855</v>
+        <v>1026.073288276257</v>
       </c>
       <c r="W22" t="n">
-        <v>325.7285317117446</v>
+        <v>974.4624016262164</v>
       </c>
       <c r="X22" t="n">
-        <v>325.7285317117446</v>
+        <v>746.4728507281991</v>
       </c>
       <c r="Y22" t="n">
-        <v>325.7285317117446</v>
+        <v>525.680271584669</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>858.1715824507074</v>
+        <v>858.1715824507066</v>
       </c>
       <c r="C23" t="n">
-        <v>727.0153488972154</v>
+        <v>727.0153488972146</v>
       </c>
       <c r="D23" t="n">
-        <v>606.5559336773846</v>
+        <v>606.555933677384</v>
       </c>
       <c r="E23" t="n">
-        <v>458.57396446606</v>
+        <v>458.5739644660598</v>
       </c>
       <c r="F23" t="n">
         <v>285.3943430633722</v>
       </c>
       <c r="G23" t="n">
-        <v>106.5295742810684</v>
+        <v>106.5295742810682</v>
       </c>
       <c r="H23" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="I23" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="J23" t="n">
-        <v>86.28037667255438</v>
+        <v>86.28037667255435</v>
       </c>
       <c r="K23" t="n">
         <v>220.798207998282</v>
       </c>
       <c r="L23" t="n">
-        <v>424.5812344960983</v>
+        <v>424.5812344960982</v>
       </c>
       <c r="M23" t="n">
-        <v>738.6149436512928</v>
+        <v>682.9985537045943</v>
       </c>
       <c r="N23" t="n">
-        <v>1005.827533630405</v>
+        <v>950.2111436837062</v>
       </c>
       <c r="O23" t="n">
-        <v>1244.813543843272</v>
+        <v>1189.197153896574</v>
       </c>
       <c r="P23" t="n">
-        <v>1414.281573564241</v>
+        <v>1439.938033876679</v>
       </c>
       <c r="Q23" t="n">
-        <v>1493.372259618749</v>
+        <v>1519.028719931187</v>
       </c>
       <c r="R23" t="n">
-        <v>1519.028719931189</v>
+        <v>1519.028719931187</v>
       </c>
       <c r="S23" t="n">
-        <v>1519.028719931189</v>
+        <v>1519.028719931187</v>
       </c>
       <c r="T23" t="n">
-        <v>1519.028719931189</v>
+        <v>1519.028719931187</v>
       </c>
       <c r="U23" t="n">
-        <v>1503.176638430807</v>
+        <v>1503.176638430805</v>
       </c>
       <c r="V23" t="n">
-        <v>1409.920034474156</v>
+        <v>1409.920034474154</v>
       </c>
       <c r="W23" t="n">
-        <v>1294.957662590962</v>
+        <v>1294.95766259096</v>
       </c>
       <c r="X23" t="n">
-        <v>1159.298187716802</v>
+        <v>1159.2981877168</v>
       </c>
       <c r="Y23" t="n">
-        <v>1006.96513912791</v>
+        <v>1006.965139127909</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>438.5439175359793</v>
+        <v>659.5400263195726</v>
       </c>
       <c r="C24" t="n">
-        <v>264.0908882548523</v>
+        <v>485.0869970384455</v>
       </c>
       <c r="D24" t="n">
-        <v>115.156478593601</v>
+        <v>336.1525873771943</v>
       </c>
       <c r="E24" t="n">
-        <v>30.38057439862377</v>
+        <v>176.9151323717388</v>
       </c>
       <c r="F24" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="G24" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="H24" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="I24" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="J24" t="n">
-        <v>44.85626672400097</v>
+        <v>44.85626672400093</v>
       </c>
       <c r="K24" t="n">
-        <v>147.7523552873459</v>
+        <v>409.5729399297986</v>
       </c>
       <c r="L24" t="n">
-        <v>390.5677041732361</v>
+        <v>594.2519703243909</v>
       </c>
       <c r="M24" t="n">
-        <v>625.4362900688762</v>
+        <v>829.1205562200309</v>
       </c>
       <c r="N24" t="n">
-        <v>880.9297934756322</v>
+        <v>1084.614059626787</v>
       </c>
       <c r="O24" t="n">
-        <v>1092.436639186673</v>
+        <v>1296.120905337828</v>
       </c>
       <c r="P24" t="n">
-        <v>1468.396247369643</v>
+        <v>1468.396247369641</v>
       </c>
       <c r="Q24" t="n">
-        <v>1519.028719931189</v>
+        <v>1519.028719931187</v>
       </c>
       <c r="R24" t="n">
-        <v>1511.760518486478</v>
+        <v>1511.760518486476</v>
       </c>
       <c r="S24" t="n">
-        <v>1511.760518486478</v>
+        <v>1511.760518486476</v>
       </c>
       <c r="T24" t="n">
-        <v>1511.760518486478</v>
+        <v>1511.760518486476</v>
       </c>
       <c r="U24" t="n">
-        <v>1511.760518486478</v>
+        <v>1511.760518486476</v>
       </c>
       <c r="V24" t="n">
-        <v>1276.608410254736</v>
+        <v>1497.604519038329</v>
       </c>
       <c r="W24" t="n">
-        <v>1022.371053526534</v>
+        <v>1243.367162310127</v>
       </c>
       <c r="X24" t="n">
-        <v>814.5195533210012</v>
+        <v>1035.515662104594</v>
       </c>
       <c r="Y24" t="n">
-        <v>606.7592545560474</v>
+        <v>827.7553633396406</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>479.9588527941686</v>
+        <v>494.1197984068341</v>
       </c>
       <c r="C25" t="n">
-        <v>479.9588527941686</v>
+        <v>325.1836154789272</v>
       </c>
       <c r="D25" t="n">
-        <v>329.8422133818329</v>
+        <v>325.1836154789272</v>
       </c>
       <c r="E25" t="n">
-        <v>181.9291197994398</v>
+        <v>177.2705218965341</v>
       </c>
       <c r="F25" t="n">
-        <v>35.0391723015294</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="G25" t="n">
-        <v>35.0391723015294</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="H25" t="n">
-        <v>35.0391723015294</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="I25" t="n">
-        <v>35.0391723015294</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="J25" t="n">
-        <v>30.38057439862377</v>
+        <v>30.38057439862374</v>
       </c>
       <c r="K25" t="n">
         <v>152.714248290652</v>
       </c>
       <c r="L25" t="n">
-        <v>364.7856674656197</v>
+        <v>364.7856674656196</v>
       </c>
       <c r="M25" t="n">
         <v>598.7743674730534</v>
@@ -6169,28 +6169,28 @@
         <v>1198.990622221911</v>
       </c>
       <c r="R25" t="n">
-        <v>1076.917738198616</v>
+        <v>1198.990622221911</v>
       </c>
       <c r="S25" t="n">
-        <v>872.7351431198942</v>
+        <v>1198.990622221911</v>
       </c>
       <c r="T25" t="n">
-        <v>647.9046496896251</v>
+        <v>1198.990622221911</v>
       </c>
       <c r="U25" t="n">
-        <v>548.4479442631767</v>
+        <v>909.848642011387</v>
       </c>
       <c r="V25" t="n">
-        <v>531.5697394442095</v>
+        <v>892.97043719242</v>
       </c>
       <c r="W25" t="n">
-        <v>479.9588527941686</v>
+        <v>603.5532671554595</v>
       </c>
       <c r="X25" t="n">
-        <v>479.9588527941686</v>
+        <v>494.1197984068341</v>
       </c>
       <c r="Y25" t="n">
-        <v>479.9588527941686</v>
+        <v>494.1197984068341</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1179.244316787516</v>
       </c>
       <c r="E26" t="n">
-        <v>897.083067103023</v>
+        <v>897.0830671030235</v>
       </c>
       <c r="F26" t="n">
         <v>589.7241652271673</v>
@@ -6227,22 +6227,22 @@
         <v>289.6572869103663</v>
       </c>
       <c r="K26" t="n">
-        <v>745.0790766815471</v>
+        <v>432.1654839495345</v>
       </c>
       <c r="L26" t="n">
-        <v>965.6789491671277</v>
+        <v>1049.433112852297</v>
       </c>
       <c r="M26" t="n">
-        <v>1224.096268375624</v>
+        <v>1752.868830218697</v>
       </c>
       <c r="N26" t="n">
-        <v>1924.2823135226</v>
+        <v>2453.054875365673</v>
       </c>
       <c r="O26" t="n">
-        <v>2540.260503185586</v>
+        <v>3069.033065028659</v>
       </c>
       <c r="P26" t="n">
-        <v>3028.309253996322</v>
+        <v>3238.501094749627</v>
       </c>
       <c r="Q26" t="n">
         <v>3317.591780804135</v>
@@ -6257,19 +6257,19 @@
         <v>3165.151346826667</v>
       </c>
       <c r="U26" t="n">
-        <v>3015.119984853116</v>
+        <v>3015.119984853117</v>
       </c>
       <c r="V26" t="n">
         <v>2787.684100423297</v>
       </c>
       <c r="W26" t="n">
-        <v>2538.542448066934</v>
+        <v>2538.542448066935</v>
       </c>
       <c r="X26" t="n">
         <v>2268.703692719606</v>
       </c>
       <c r="Y26" t="n">
-        <v>1982.191363657545</v>
+        <v>1982.191363657546</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1122.185298379279</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.053884274919</v>
+        <v>1428.437720498061</v>
       </c>
       <c r="N27" t="n">
-        <v>1612.547387681675</v>
+        <v>1683.931223904817</v>
       </c>
       <c r="O27" t="n">
         <v>1895.438069615858</v>
@@ -6382,25 +6382,25 @@
         <v>66.35183561608271</v>
       </c>
       <c r="J28" t="n">
-        <v>66.35183561608271</v>
+        <v>163.3507693672126</v>
       </c>
       <c r="K28" t="n">
-        <v>188.685509508111</v>
+        <v>285.6844432592409</v>
       </c>
       <c r="L28" t="n">
-        <v>400.7569286830786</v>
+        <v>599.3206879899762</v>
       </c>
       <c r="M28" t="n">
-        <v>634.7456286905124</v>
+        <v>876.6223417463973</v>
       </c>
       <c r="N28" t="n">
-        <v>907.3522787684317</v>
+        <v>1110.481929879967</v>
       </c>
       <c r="O28" t="n">
-        <v>1107.343164166476</v>
+        <v>1310.472815278012</v>
       </c>
       <c r="P28" t="n">
-        <v>1356.514059444455</v>
+        <v>1458.078885000223</v>
       </c>
       <c r="Q28" t="n">
         <v>1476.838596495255</v>
@@ -6446,13 +6446,13 @@
         <v>1179.244316787517</v>
       </c>
       <c r="E29" t="n">
-        <v>897.083067103024</v>
+        <v>897.0830671030237</v>
       </c>
       <c r="F29" t="n">
-        <v>589.7241652271678</v>
+        <v>589.7241652271675</v>
       </c>
       <c r="G29" t="n">
-        <v>276.6801159716956</v>
+        <v>276.6801159716954</v>
       </c>
       <c r="H29" t="n">
         <v>66.35183561608271</v>
@@ -6461,19 +6461,19 @@
         <v>66.35183561608271</v>
       </c>
       <c r="J29" t="n">
-        <v>122.2516378900133</v>
+        <v>289.6572869103663</v>
       </c>
       <c r="K29" t="n">
-        <v>577.6734276611941</v>
+        <v>432.1654839495345</v>
       </c>
       <c r="L29" t="n">
-        <v>1194.941056563956</v>
+        <v>1049.433112852297</v>
       </c>
       <c r="M29" t="n">
-        <v>1898.376773930357</v>
+        <v>1752.868830218697</v>
       </c>
       <c r="N29" t="n">
-        <v>2598.562819077333</v>
+        <v>2453.054875365673</v>
       </c>
       <c r="O29" t="n">
         <v>3069.033065028659</v>
@@ -6491,7 +6491,7 @@
         <v>3274.499971845942</v>
       </c>
       <c r="T29" t="n">
-        <v>3165.151346826667</v>
+        <v>3165.151346826668</v>
       </c>
       <c r="U29" t="n">
         <v>3015.119984853117</v>
@@ -6506,7 +6506,7 @@
         <v>2268.703692719607</v>
       </c>
       <c r="Y29" t="n">
-        <v>1982.191363657547</v>
+        <v>1982.191363657546</v>
       </c>
     </row>
     <row r="30">
@@ -6555,10 +6555,10 @@
         <v>1794.361699914411</v>
       </c>
       <c r="O30" t="n">
-        <v>2395.792241709414</v>
+        <v>2210.716210569396</v>
       </c>
       <c r="P30" t="n">
-        <v>2569.112549640621</v>
+        <v>2361.13603478213</v>
       </c>
       <c r="Q30" t="n">
         <v>2619.745022202167</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.7214168615737</v>
+        <v>394.721416861574</v>
       </c>
       <c r="C31" t="n">
-        <v>329.4122368474183</v>
+        <v>329.4122368474185</v>
       </c>
       <c r="D31" t="n">
-        <v>282.922600348834</v>
+        <v>282.9226003488341</v>
       </c>
       <c r="E31" t="n">
-        <v>238.6365096801922</v>
+        <v>238.6365096801924</v>
       </c>
       <c r="F31" t="n">
-        <v>195.3735650960333</v>
+        <v>195.3735650960334</v>
       </c>
       <c r="G31" t="n">
-        <v>130.5806535547644</v>
+        <v>130.5806535547645</v>
       </c>
       <c r="H31" t="n">
-        <v>81.61499589105507</v>
+        <v>81.61499589105512</v>
       </c>
       <c r="I31" t="n">
         <v>66.35183561608271</v>
@@ -6622,19 +6622,19 @@
         <v>163.3507693672126</v>
       </c>
       <c r="K31" t="n">
-        <v>387.2492688150087</v>
+        <v>387.2492688150086</v>
       </c>
       <c r="L31" t="n">
-        <v>599.3206879899762</v>
+        <v>642.6336417389648</v>
       </c>
       <c r="M31" t="n">
-        <v>876.622341746398</v>
+        <v>876.6223417463987</v>
       </c>
       <c r="N31" t="n">
-        <v>1110.481929879968</v>
+        <v>1110.481929879969</v>
       </c>
       <c r="O31" t="n">
-        <v>1310.472815278012</v>
+        <v>1310.472815278013</v>
       </c>
       <c r="P31" t="n">
         <v>1458.078885000224</v>
@@ -6652,19 +6652,19 @@
         <v>1236.633632704224</v>
       </c>
       <c r="U31" t="n">
-        <v>1051.118655407451</v>
+        <v>1051.118655407452</v>
       </c>
       <c r="V31" t="n">
-        <v>900.0611701153159</v>
+        <v>900.0611701153161</v>
       </c>
       <c r="W31" t="n">
-        <v>714.2710029921067</v>
+        <v>714.2710029921069</v>
       </c>
       <c r="X31" t="n">
-        <v>589.9084550078408</v>
+        <v>589.908455007841</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.742878778062</v>
+        <v>472.7428787780623</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1699.218526507176</v>
       </c>
       <c r="C32" t="n">
-        <v>1433.883012480515</v>
+        <v>1433.883012480516</v>
       </c>
       <c r="D32" t="n">
-        <v>1179.244316787516</v>
+        <v>1179.244316787517</v>
       </c>
       <c r="E32" t="n">
-        <v>897.0830671030237</v>
+        <v>897.083067103024</v>
       </c>
       <c r="F32" t="n">
         <v>589.7241652271678</v>
       </c>
       <c r="G32" t="n">
-        <v>276.6801159716954</v>
+        <v>276.6801159716956</v>
       </c>
       <c r="H32" t="n">
         <v>66.35183561608271</v>
@@ -6701,22 +6701,22 @@
         <v>289.6572869103663</v>
       </c>
       <c r="K32" t="n">
-        <v>745.0790766815471</v>
+        <v>432.1654839495345</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.346705584309</v>
+        <v>1049.433112852297</v>
       </c>
       <c r="M32" t="n">
-        <v>1657.069723543488</v>
+        <v>1752.868830218697</v>
       </c>
       <c r="N32" t="n">
-        <v>1924.2823135226</v>
+        <v>2453.054875365673</v>
       </c>
       <c r="O32" t="n">
-        <v>2540.260503185586</v>
+        <v>3069.033065028659</v>
       </c>
       <c r="P32" t="n">
-        <v>3028.309253996322</v>
+        <v>3238.501094749627</v>
       </c>
       <c r="Q32" t="n">
         <v>3317.591780804135</v>
@@ -6731,13 +6731,13 @@
         <v>3165.151346826667</v>
       </c>
       <c r="U32" t="n">
-        <v>3015.119984853116</v>
+        <v>3015.119984853117</v>
       </c>
       <c r="V32" t="n">
         <v>2787.684100423297</v>
       </c>
       <c r="W32" t="n">
-        <v>2538.542448066935</v>
+        <v>2538.542448066934</v>
       </c>
       <c r="X32" t="n">
         <v>2268.703692719606</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>394.7214168615736</v>
+        <v>394.7214168615737</v>
       </c>
       <c r="C34" t="n">
-        <v>329.4122368474181</v>
+        <v>329.4122368474183</v>
       </c>
       <c r="D34" t="n">
-        <v>282.9226003488338</v>
+        <v>282.922600348834</v>
       </c>
       <c r="E34" t="n">
         <v>238.6365096801922</v>
       </c>
       <c r="F34" t="n">
-        <v>195.3735650960332</v>
+        <v>195.3735650960333</v>
       </c>
       <c r="G34" t="n">
         <v>130.5806535547644</v>
       </c>
       <c r="H34" t="n">
-        <v>81.61499589105506</v>
+        <v>81.61499589105507</v>
       </c>
       <c r="I34" t="n">
         <v>66.35183561608271</v>
       </c>
       <c r="J34" t="n">
-        <v>66.35183561608271</v>
+        <v>163.3507693672126</v>
       </c>
       <c r="K34" t="n">
-        <v>188.685509508111</v>
+        <v>285.6844432592409</v>
       </c>
       <c r="L34" t="n">
-        <v>400.7569286830786</v>
+        <v>497.7558624342085</v>
       </c>
       <c r="M34" t="n">
-        <v>634.7456286905124</v>
+        <v>833.3093879974101</v>
       </c>
       <c r="N34" t="n">
-        <v>868.6052168240824</v>
+        <v>1067.16897613098</v>
       </c>
       <c r="O34" t="n">
-        <v>1107.343164166476</v>
+        <v>1310.472815278012</v>
       </c>
       <c r="P34" t="n">
-        <v>1356.514059444455</v>
+        <v>1458.078885000224</v>
       </c>
       <c r="Q34" t="n">
-        <v>1476.838596495255</v>
+        <v>1476.838596495256</v>
       </c>
       <c r="R34" t="n">
-        <v>1458.392715385711</v>
+        <v>1458.392715385712</v>
       </c>
       <c r="S34" t="n">
-        <v>1357.837123220741</v>
+        <v>1357.837123220742</v>
       </c>
       <c r="T34" t="n">
         <v>1236.633632704224</v>
@@ -6892,16 +6892,16 @@
         <v>1051.118655407451</v>
       </c>
       <c r="V34" t="n">
-        <v>900.0611701153157</v>
+        <v>900.0611701153159</v>
       </c>
       <c r="W34" t="n">
-        <v>714.2710029921064</v>
+        <v>714.2710029921067</v>
       </c>
       <c r="X34" t="n">
-        <v>589.9084550078405</v>
+        <v>589.9084550078408</v>
       </c>
       <c r="Y34" t="n">
-        <v>472.7428787780618</v>
+        <v>472.742878778062</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>1040.827280329417</v>
       </c>
       <c r="C35" t="n">
-        <v>880.4366498654665</v>
+        <v>880.436649865467</v>
       </c>
       <c r="D35" t="n">
-        <v>730.7428377351775</v>
+        <v>730.7428377351779</v>
       </c>
       <c r="E35" t="n">
-        <v>553.526471613395</v>
+        <v>553.5264716133951</v>
       </c>
       <c r="F35" t="n">
         <v>351.1124533002489</v>
       </c>
       <c r="G35" t="n">
-        <v>143.0132876074869</v>
+        <v>143.0132876074871</v>
       </c>
       <c r="H35" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="I35" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="J35" t="n">
-        <v>93.52969308851483</v>
+        <v>93.52969308851488</v>
       </c>
       <c r="K35" t="n">
-        <v>228.0475244142424</v>
+        <v>228.0475244142425</v>
       </c>
       <c r="L35" t="n">
-        <v>431.8305509120587</v>
+        <v>462.610017079908</v>
       </c>
       <c r="M35" t="n">
-        <v>897.5004497425384</v>
+        <v>928.2799159103881</v>
       </c>
       <c r="N35" t="n">
-        <v>1363.170348573018</v>
+        <v>1393.949814740868</v>
       </c>
       <c r="O35" t="n">
-        <v>1602.156358785886</v>
+        <v>1632.935824953736</v>
       </c>
       <c r="P35" t="n">
-        <v>1771.624388506854</v>
+        <v>1802.403854674704</v>
       </c>
       <c r="Q35" t="n">
-        <v>1881.494540729211</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R35" t="n">
-        <v>1881.494540729211</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="S35" t="n">
-        <v>1881.494540729211</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="T35" t="n">
-        <v>1877.090799272646</v>
+        <v>1877.090799272647</v>
       </c>
       <c r="U35" t="n">
-        <v>1832.004320861807</v>
+        <v>1832.004320861808</v>
       </c>
       <c r="V35" t="n">
-        <v>1709.513319994698</v>
+        <v>1709.513319994699</v>
       </c>
       <c r="W35" t="n">
-        <v>1565.316551201045</v>
+        <v>1565.316551201046</v>
       </c>
       <c r="X35" t="n">
-        <v>1400.422679416427</v>
+        <v>1400.422679416428</v>
       </c>
       <c r="Y35" t="n">
         <v>1218.855233917077</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>666.7893427355331</v>
+        <v>492.3363134544061</v>
       </c>
       <c r="C36" t="n">
-        <v>492.336313454406</v>
+        <v>492.3363134544061</v>
       </c>
       <c r="D36" t="n">
         <v>343.4019037931548</v>
@@ -7002,64 +7002,64 @@
         <v>184.1644487876993</v>
       </c>
       <c r="F36" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="G36" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="H36" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="I36" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="J36" t="n">
-        <v>52.10558313996141</v>
+        <v>52.10558313996145</v>
       </c>
       <c r="K36" t="n">
-        <v>416.8222563457591</v>
+        <v>155.0016717033063</v>
       </c>
       <c r="L36" t="n">
-        <v>601.5012867403514</v>
+        <v>560.4203986592806</v>
       </c>
       <c r="M36" t="n">
-        <v>836.3698726359914</v>
+        <v>795.2889845549207</v>
       </c>
       <c r="N36" t="n">
-        <v>1091.863376042747</v>
+        <v>1260.958883385401</v>
       </c>
       <c r="O36" t="n">
-        <v>1303.370221753788</v>
+        <v>1472.465729096442</v>
       </c>
       <c r="P36" t="n">
-        <v>1769.040120584268</v>
+        <v>1622.885553309176</v>
       </c>
       <c r="Q36" t="n">
-        <v>1881.494540729211</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R36" t="n">
-        <v>1874.2263392845</v>
+        <v>1874.226339284502</v>
       </c>
       <c r="S36" t="n">
-        <v>1874.2263392845</v>
+        <v>1728.901119918145</v>
       </c>
       <c r="T36" t="n">
-        <v>1874.2263392845</v>
+        <v>1728.901119918145</v>
       </c>
       <c r="U36" t="n">
-        <v>1740.005943686032</v>
+        <v>1565.552914404905</v>
       </c>
       <c r="V36" t="n">
-        <v>1504.853835454289</v>
+        <v>1330.400806173162</v>
       </c>
       <c r="W36" t="n">
-        <v>1250.616478726088</v>
+        <v>1076.163449444961</v>
       </c>
       <c r="X36" t="n">
-        <v>1042.764978520555</v>
+        <v>868.311949239428</v>
       </c>
       <c r="Y36" t="n">
-        <v>835.004679755601</v>
+        <v>660.5516504744742</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.0993361420682</v>
+        <v>147.8401627095682</v>
       </c>
       <c r="C37" t="n">
-        <v>325.0993361420682</v>
+        <v>147.8401627095682</v>
       </c>
       <c r="D37" t="n">
-        <v>325.0993361420682</v>
+        <v>147.8401627095682</v>
       </c>
       <c r="E37" t="n">
-        <v>325.0993361420682</v>
+        <v>147.8401627095682</v>
       </c>
       <c r="F37" t="n">
-        <v>325.0993361420682</v>
+        <v>147.8401627095682</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6794216870478</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="H37" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="I37" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="J37" t="n">
-        <v>37.62989081458421</v>
+        <v>37.62989081458425</v>
       </c>
       <c r="K37" t="n">
         <v>159.9635647066125</v>
       </c>
       <c r="L37" t="n">
-        <v>372.0349838815801</v>
+        <v>372.0349838815802</v>
       </c>
       <c r="M37" t="n">
         <v>606.0236838890139</v>
@@ -7120,25 +7120,25 @@
         <v>1206.239938637872</v>
       </c>
       <c r="S37" t="n">
-        <v>1206.239938637872</v>
+        <v>1002.05734355915</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.981331684064</v>
+        <v>985.7987366053426</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.411237950002</v>
+        <v>905.22864287128</v>
       </c>
       <c r="V37" t="n">
-        <v>1063.298636220576</v>
+        <v>859.1160411418546</v>
       </c>
       <c r="W37" t="n">
-        <v>773.8814661836157</v>
+        <v>569.6988711048939</v>
       </c>
       <c r="X37" t="n">
-        <v>545.8919152855983</v>
+        <v>341.7093202068766</v>
       </c>
       <c r="Y37" t="n">
-        <v>325.0993361420682</v>
+        <v>329.4886275398079</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1040.827280329417</v>
+        <v>1040.827280329418</v>
       </c>
       <c r="C38" t="n">
-        <v>880.436649865467</v>
+        <v>880.436649865468</v>
       </c>
       <c r="D38" t="n">
-        <v>730.742837735178</v>
+        <v>730.7428377351789</v>
       </c>
       <c r="E38" t="n">
-        <v>553.5264716133954</v>
+        <v>553.5264716133961</v>
       </c>
       <c r="F38" t="n">
-        <v>351.1124533002495</v>
+        <v>351.11245330025</v>
       </c>
       <c r="G38" t="n">
-        <v>143.013287607487</v>
+        <v>143.0132876074871</v>
       </c>
       <c r="H38" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I38" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J38" t="n">
-        <v>93.52969308851485</v>
+        <v>260.9353421088679</v>
       </c>
       <c r="K38" t="n">
-        <v>228.0475244142425</v>
+        <v>395.4531734345956</v>
       </c>
       <c r="L38" t="n">
-        <v>431.8305509120587</v>
+        <v>599.2361999324119</v>
       </c>
       <c r="M38" t="n">
-        <v>690.2478701205548</v>
+        <v>857.653519140908</v>
       </c>
       <c r="N38" t="n">
-        <v>957.4604600996666</v>
+        <v>1124.86610912002</v>
       </c>
       <c r="O38" t="n">
-        <v>1196.446470312534</v>
+        <v>1363.852119332887</v>
       </c>
       <c r="P38" t="n">
-        <v>1592.212013921398</v>
+        <v>1592.2120139214</v>
       </c>
       <c r="Q38" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R38" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="S38" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="T38" t="n">
-        <v>1877.090799272647</v>
+        <v>1877.090799272649</v>
       </c>
       <c r="U38" t="n">
-        <v>1832.004320861807</v>
+        <v>1832.004320861809</v>
       </c>
       <c r="V38" t="n">
-        <v>1709.513319994698</v>
+        <v>1709.5133199947</v>
       </c>
       <c r="W38" t="n">
-        <v>1565.316551201046</v>
+        <v>1565.316551201047</v>
       </c>
       <c r="X38" t="n">
-        <v>1400.422679416427</v>
+        <v>1400.422679416429</v>
       </c>
       <c r="Y38" t="n">
-        <v>1218.855233917077</v>
+        <v>1218.855233917079</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>517.8549330742818</v>
+        <v>520.254784762418</v>
       </c>
       <c r="C39" t="n">
-        <v>343.4019037931548</v>
+        <v>345.801755481291</v>
       </c>
       <c r="D39" t="n">
-        <v>343.4019037931548</v>
+        <v>196.8673458200398</v>
       </c>
       <c r="E39" t="n">
-        <v>184.1644487876993</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="F39" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="G39" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="H39" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J39" t="n">
-        <v>52.10558313996143</v>
+        <v>176.9357081269662</v>
       </c>
       <c r="K39" t="n">
-        <v>270.6676890706656</v>
+        <v>541.652381332764</v>
       </c>
       <c r="L39" t="n">
-        <v>455.3467194652579</v>
+        <v>726.3314117273562</v>
       </c>
       <c r="M39" t="n">
-        <v>690.215305360898</v>
+        <v>961.1999976229963</v>
       </c>
       <c r="N39" t="n">
-        <v>945.708808767654</v>
+        <v>1216.693501029752</v>
       </c>
       <c r="O39" t="n">
-        <v>1157.215654478695</v>
+        <v>1428.200346740793</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.885553309175</v>
+        <v>1622.885553309177</v>
       </c>
       <c r="Q39" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R39" t="n">
-        <v>1874.226339284501</v>
+        <v>1874.226339284503</v>
       </c>
       <c r="S39" t="n">
-        <v>1728.901119918144</v>
+        <v>1821.59550412346</v>
       </c>
       <c r="T39" t="n">
-        <v>1610.623765958862</v>
+        <v>1821.59550412346</v>
       </c>
       <c r="U39" t="n">
-        <v>1591.071534024781</v>
+        <v>1593.471385712917</v>
       </c>
       <c r="V39" t="n">
-        <v>1355.919425793038</v>
+        <v>1358.319277481174</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.682069064836</v>
+        <v>1104.081920752973</v>
       </c>
       <c r="X39" t="n">
-        <v>893.8305688593036</v>
+        <v>896.23042054744</v>
       </c>
       <c r="Y39" t="n">
-        <v>686.0702700943498</v>
+        <v>688.4701217824861</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.222551392045</v>
+        <v>356.682713154827</v>
       </c>
       <c r="C40" t="n">
-        <v>190.222551392045</v>
+        <v>187.74653022692</v>
       </c>
       <c r="D40" t="n">
-        <v>190.222551392045</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="E40" t="n">
-        <v>190.222551392045</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="F40" t="n">
-        <v>190.222551392045</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="G40" t="n">
-        <v>190.222551392045</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="H40" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I40" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J40" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="K40" t="n">
         <v>159.9635647066125</v>
       </c>
       <c r="L40" t="n">
-        <v>372.0349838815801</v>
+        <v>372.0349838815802</v>
       </c>
       <c r="M40" t="n">
         <v>606.0236838890139</v>
@@ -7363,19 +7363,19 @@
         <v>1189.981331684064</v>
       </c>
       <c r="U40" t="n">
-        <v>900.8393514735401</v>
+        <v>1109.411237950001</v>
       </c>
       <c r="V40" t="n">
-        <v>854.7267497441148</v>
+        <v>1063.298636220576</v>
       </c>
       <c r="W40" t="n">
-        <v>773.8814661836158</v>
+        <v>982.4533526600767</v>
       </c>
       <c r="X40" t="n">
-        <v>545.8919152855984</v>
+        <v>759.1237571285968</v>
       </c>
       <c r="Y40" t="n">
-        <v>371.8710162222847</v>
+        <v>538.3311779850667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1040.827280329416</v>
+        <v>1040.827280329417</v>
       </c>
       <c r="C41" t="n">
-        <v>880.4366498654662</v>
+        <v>880.4366498654668</v>
       </c>
       <c r="D41" t="n">
-        <v>730.7428377351772</v>
+        <v>730.742837735178</v>
       </c>
       <c r="E41" t="n">
-        <v>553.5264716133945</v>
+        <v>553.5264716133954</v>
       </c>
       <c r="F41" t="n">
-        <v>351.1124533002485</v>
+        <v>351.1124533002494</v>
       </c>
       <c r="G41" t="n">
         <v>143.0132876074871</v>
       </c>
       <c r="H41" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I41" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J41" t="n">
-        <v>93.52969308851485</v>
+        <v>260.9353421088679</v>
       </c>
       <c r="K41" t="n">
-        <v>228.0475244142425</v>
+        <v>395.4531734345956</v>
       </c>
       <c r="L41" t="n">
-        <v>431.8305509120587</v>
+        <v>599.2361999324119</v>
       </c>
       <c r="M41" t="n">
-        <v>690.2478701205548</v>
+        <v>857.653519140908</v>
       </c>
       <c r="N41" t="n">
-        <v>957.4604600996666</v>
+        <v>1124.86610912002</v>
       </c>
       <c r="O41" t="n">
-        <v>1196.446470312534</v>
+        <v>1363.852119332887</v>
       </c>
       <c r="P41" t="n">
-        <v>1592.212013921398</v>
+        <v>1592.2120139214</v>
       </c>
       <c r="Q41" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R41" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="S41" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="T41" t="n">
-        <v>1877.090799272647</v>
+        <v>1877.090799272648</v>
       </c>
       <c r="U41" t="n">
-        <v>1832.004320861807</v>
+        <v>1832.004320861809</v>
       </c>
       <c r="V41" t="n">
-        <v>1709.513319994698</v>
+        <v>1709.513319994699</v>
       </c>
       <c r="W41" t="n">
-        <v>1565.316551201045</v>
+        <v>1565.316551201046</v>
       </c>
       <c r="X41" t="n">
-        <v>1400.422679416427</v>
+        <v>1400.422679416428</v>
       </c>
       <c r="Y41" t="n">
         <v>1218.855233917077</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>591.0988706163878</v>
+        <v>666.7893427355331</v>
       </c>
       <c r="C42" t="n">
-        <v>591.0988706163878</v>
+        <v>492.3363134544061</v>
       </c>
       <c r="D42" t="n">
-        <v>442.1644609551365</v>
+        <v>343.4019037931548</v>
       </c>
       <c r="E42" t="n">
-        <v>282.927005949681</v>
+        <v>184.1644487876993</v>
       </c>
       <c r="F42" t="n">
-        <v>136.392447976566</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="G42" t="n">
-        <v>136.392447976566</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="H42" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I42" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J42" t="n">
-        <v>52.10558313996143</v>
+        <v>176.9357081269662</v>
       </c>
       <c r="K42" t="n">
-        <v>270.6676890706656</v>
+        <v>541.652381332764</v>
       </c>
       <c r="L42" t="n">
-        <v>455.3467194652579</v>
+        <v>726.3314117273562</v>
       </c>
       <c r="M42" t="n">
-        <v>690.215305360898</v>
+        <v>961.1999976229963</v>
       </c>
       <c r="N42" t="n">
-        <v>945.708808767654</v>
+        <v>1216.693501029752</v>
       </c>
       <c r="O42" t="n">
-        <v>1157.215654478695</v>
+        <v>1428.200346740793</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.885553309175</v>
+        <v>1622.885553309177</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.494540729212</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="S42" t="n">
-        <v>1736.169321362855</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="T42" t="n">
-        <v>1540.078751052944</v>
+        <v>1881.494540729213</v>
       </c>
       <c r="U42" t="n">
-        <v>1311.954632642401</v>
+        <v>1740.005943686032</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.948026315076</v>
+        <v>1504.853835454289</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.710669586874</v>
+        <v>1250.616478726088</v>
       </c>
       <c r="X42" t="n">
-        <v>798.8591693813416</v>
+        <v>1042.764978520555</v>
       </c>
       <c r="Y42" t="n">
-        <v>591.0988706163878</v>
+        <v>835.004679755601</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>505.5324133449757</v>
+        <v>120.9167410633465</v>
       </c>
       <c r="C43" t="n">
-        <v>505.5324133449757</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="D43" t="n">
-        <v>505.5324133449757</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="E43" t="n">
-        <v>505.5324133449757</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="F43" t="n">
-        <v>358.6424658470653</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="G43" t="n">
-        <v>190.222551392045</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="H43" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="I43" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="J43" t="n">
-        <v>37.62989081458424</v>
+        <v>37.62989081458427</v>
       </c>
       <c r="K43" t="n">
         <v>159.9635647066125</v>
       </c>
       <c r="L43" t="n">
-        <v>372.0349838815801</v>
+        <v>372.0349838815802</v>
       </c>
       <c r="M43" t="n">
         <v>606.0236838890139</v>
@@ -7594,25 +7594,25 @@
         <v>1206.239938637872</v>
       </c>
       <c r="S43" t="n">
-        <v>1206.239938637872</v>
+        <v>1002.05734355915</v>
       </c>
       <c r="T43" t="n">
-        <v>1189.981331684064</v>
+        <v>777.2268501288811</v>
       </c>
       <c r="U43" t="n">
-        <v>1109.411237950001</v>
+        <v>488.0848699183571</v>
       </c>
       <c r="V43" t="n">
-        <v>854.7267497441145</v>
+        <v>233.4003817124702</v>
       </c>
       <c r="W43" t="n">
-        <v>773.8814661836154</v>
+        <v>152.555098151971</v>
       </c>
       <c r="X43" t="n">
-        <v>754.4638017620596</v>
+        <v>133.1374337304152</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.1808781752154</v>
+        <v>120.9167410633465</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1040.827280329417</v>
+        <v>1040.827280329416</v>
       </c>
       <c r="C44" t="n">
-        <v>880.4366498654665</v>
+        <v>880.4366498654661</v>
       </c>
       <c r="D44" t="n">
-        <v>730.7428377351775</v>
+        <v>730.7428377351771</v>
       </c>
       <c r="E44" t="n">
-        <v>553.5264716133951</v>
+        <v>553.5264716133945</v>
       </c>
       <c r="F44" t="n">
-        <v>351.1124533002491</v>
+        <v>351.1124533002485</v>
       </c>
       <c r="G44" t="n">
         <v>143.0132876074871</v>
@@ -7646,25 +7646,25 @@
         <v>37.62989081458424</v>
       </c>
       <c r="J44" t="n">
-        <v>93.52969308851485</v>
+        <v>260.9353421088679</v>
       </c>
       <c r="K44" t="n">
-        <v>228.0475244142425</v>
+        <v>664.536879055443</v>
       </c>
       <c r="L44" t="n">
-        <v>431.8305509120587</v>
+        <v>868.3199055532593</v>
       </c>
       <c r="M44" t="n">
-        <v>690.2478701205548</v>
+        <v>1126.737224761755</v>
       </c>
       <c r="N44" t="n">
-        <v>957.4604600996666</v>
+        <v>1393.949814740867</v>
       </c>
       <c r="O44" t="n">
-        <v>1196.446470312534</v>
+        <v>1632.935824953735</v>
       </c>
       <c r="P44" t="n">
-        <v>1662.116369143014</v>
+        <v>1802.403854674704</v>
       </c>
       <c r="Q44" t="n">
         <v>1881.494540729212</v>
@@ -7682,16 +7682,16 @@
         <v>1832.004320861807</v>
       </c>
       <c r="V44" t="n">
-        <v>1709.513319994698</v>
+        <v>1709.513319994697</v>
       </c>
       <c r="W44" t="n">
-        <v>1565.316551201046</v>
+        <v>1565.316551201045</v>
       </c>
       <c r="X44" t="n">
         <v>1400.422679416427</v>
       </c>
       <c r="Y44" t="n">
-        <v>1218.855233917077</v>
+        <v>1218.855233917076</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>579.3828886058816</v>
+        <v>666.7893427355331</v>
       </c>
       <c r="C45" t="n">
-        <v>579.3828886058816</v>
+        <v>492.336313454406</v>
       </c>
       <c r="D45" t="n">
-        <v>579.3828886058816</v>
+        <v>343.4019037931548</v>
       </c>
       <c r="E45" t="n">
-        <v>420.145433600426</v>
+        <v>184.1644487876993</v>
       </c>
       <c r="F45" t="n">
-        <v>273.610875627311</v>
+        <v>37.62989081458424</v>
       </c>
       <c r="G45" t="n">
-        <v>136.392447976566</v>
+        <v>37.62989081458424</v>
       </c>
       <c r="H45" t="n">
         <v>37.62989081458424</v>
@@ -7725,22 +7725,22 @@
         <v>37.62989081458424</v>
       </c>
       <c r="J45" t="n">
-        <v>52.10558313996143</v>
+        <v>176.9357081269662</v>
       </c>
       <c r="K45" t="n">
-        <v>270.6676890706656</v>
+        <v>541.6523813327639</v>
       </c>
       <c r="L45" t="n">
-        <v>455.3467194652579</v>
+        <v>726.3314117273561</v>
       </c>
       <c r="M45" t="n">
-        <v>690.215305360898</v>
+        <v>961.1999976229963</v>
       </c>
       <c r="N45" t="n">
-        <v>945.708808767654</v>
+        <v>1216.693501029752</v>
       </c>
       <c r="O45" t="n">
-        <v>1157.215654478695</v>
+        <v>1428.200346740793</v>
       </c>
       <c r="P45" t="n">
         <v>1622.885553309175</v>
@@ -7752,25 +7752,25 @@
         <v>1874.226339284501</v>
       </c>
       <c r="S45" t="n">
-        <v>1728.901119918144</v>
+        <v>1874.226339284501</v>
       </c>
       <c r="T45" t="n">
-        <v>1728.901119918144</v>
+        <v>1874.226339284501</v>
       </c>
       <c r="U45" t="n">
-        <v>1652.599489556381</v>
+        <v>1740.005943686032</v>
       </c>
       <c r="V45" t="n">
-        <v>1417.447381324638</v>
+        <v>1504.853835454289</v>
       </c>
       <c r="W45" t="n">
-        <v>1163.210024596436</v>
+        <v>1250.616478726088</v>
       </c>
       <c r="X45" t="n">
-        <v>955.3585243909035</v>
+        <v>1042.764978520555</v>
       </c>
       <c r="Y45" t="n">
-        <v>747.5982256259497</v>
+        <v>835.004679755601</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.6827131548268</v>
+        <v>143.4508713118283</v>
       </c>
       <c r="C46" t="n">
-        <v>187.74653022692</v>
+        <v>143.4508713118283</v>
       </c>
       <c r="D46" t="n">
-        <v>37.62989081458424</v>
+        <v>143.4508713118283</v>
       </c>
       <c r="E46" t="n">
-        <v>37.62989081458424</v>
+        <v>143.4508713118283</v>
       </c>
       <c r="F46" t="n">
-        <v>37.62989081458424</v>
+        <v>143.4508713118283</v>
       </c>
       <c r="G46" t="n">
         <v>37.62989081458424</v>
@@ -7834,22 +7834,22 @@
         <v>1206.239938637872</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.981331684064</v>
+        <v>981.4094452076024</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.411237950001</v>
+        <v>692.2674649970784</v>
       </c>
       <c r="V46" t="n">
-        <v>854.7267497441145</v>
+        <v>437.5829767911915</v>
       </c>
       <c r="W46" t="n">
-        <v>773.8814661836154</v>
+        <v>356.7376932306924</v>
       </c>
       <c r="X46" t="n">
-        <v>550.5518706521352</v>
+        <v>337.3200288091366</v>
       </c>
       <c r="Y46" t="n">
-        <v>538.3311779850666</v>
+        <v>325.099336142068</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.80080339577063</v>
+        <v>39.80080339577069</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>103.4976653440473</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>100.9500641533209</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.35669415696</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.8008033957706</v>
+        <v>39.80080339576902</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>204.447729497367</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.4477294973685</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.8008033957706</v>
+        <v>39.80080339576902</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>172.4798348726784</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>145.3810315227297</v>
       </c>
       <c r="P18" t="n">
-        <v>31.96789462469002</v>
+        <v>59.06669797463735</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>204.4477294973683</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>204.4477294973689</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>56.17817166333185</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>82.09378814054199</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>39.8008033957706</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>58.72355403161413</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>227.8179636062981</v>
+        <v>22.07628062533209</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>8.071076478222778</v>
       </c>
       <c r="L26" t="n">
-        <v>16.98671311895387</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>39.8008033957706</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>72.10488507388072</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>72.10488507388072</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>8.071076478222778</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>233.8224603418773</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>206.916833276711</v>
       </c>
       <c r="P30" t="n">
-        <v>23.13180173583075</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,25 +10349,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>8.071076478222778</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>36.67242298048768</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>39.8008033957706</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>31.09036986651438</v>
       </c>
       <c r="M35" t="n">
-        <v>209.3460400222057</v>
+        <v>209.3460400222061</v>
       </c>
       <c r="N35" t="n">
-        <v>200.4619281326948</v>
+        <v>200.4619281326953</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>31.09036986651341</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>39.8008033957706</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>222.9693904660425</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>212.299389316893</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4344188058035</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>62.44641170040074</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>228.5833473615103</v>
+        <v>59.48673218943821</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>116.8343609771306</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4344188058038</v>
+        <v>44.71250742994894</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>228.5833473615103</v>
+        <v>59.48673218943821</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>116.8343609771306</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4344188058038</v>
+        <v>44.71250742994894</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>271.8017228493409</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>299.1938071813246</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.7045308400904</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>39.8008033957706</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>116.8343609771306</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4344188058038</v>
+        <v>44.7125074299471</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>232.435404102571</v>
+        <v>232.4354041025708</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>221.8455539522462</v>
       </c>
       <c r="E11" t="n">
-        <v>249.0928824038252</v>
+        <v>249.092882403825</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>46.03772843429334</v>
       </c>
       <c r="G11" t="n">
-        <v>5.038791248900509</v>
+        <v>279.6668539790946</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>177.9782427682339</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.41413608478923</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.00838398525954</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>118.2842935699916</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>194.9147708016982</v>
       </c>
       <c r="W11" t="n">
-        <v>216.4034810489764</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>236.8936130100325</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.400450987617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.896353995044</v>
+        <v>249.8963539950438</v>
       </c>
       <c r="C14" t="n">
-        <v>232.435404102571</v>
+        <v>232.4354041025708</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>221.8455539522462</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>30.48924578793368</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>279.6668539790948</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>177.9782427682341</v>
+        <v>177.9782427682339</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.41413608478922</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>78.00838398525954</v>
+        <v>78.00838398525937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>194.9147708016983</v>
+        <v>194.9147708016982</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>216.4034810489763</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.657290725272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>80.46012175654687</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>80.46012175654698</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>80.46012175654747</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>80.46012175654444</v>
       </c>
     </row>
     <row r="21">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.300826609935029e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>729706.6603228102</v>
+        <v>729706.6603228103</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834898.9609717692</v>
+        <v>834898.9609717691</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834898.9609717692</v>
+        <v>834898.9609717694</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>846561.6937939922</v>
+        <v>846561.693793992</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869543.1252138619</v>
+        <v>869543.125213862</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>869543.125213862</v>
+        <v>869543.1252138622</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869543.125213862</v>
+        <v>869543.1252138622</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377787</v>
+      </c>
+      <c r="C2" t="n">
         <v>614457.2540377786</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377785</v>
-      </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
         <v>532083.6326426275</v>
       </c>
       <c r="F2" t="n">
-        <v>532083.6326426276</v>
+        <v>532083.632642627</v>
       </c>
       <c r="G2" t="n">
-        <v>610977.8581293464</v>
+        <v>610977.8581293467</v>
       </c>
       <c r="H2" t="n">
-        <v>610977.8581293466</v>
+        <v>610977.8581293472</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="J2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="K2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="M2" t="n">
         <v>615781.3273982124</v>
@@ -26353,7 +26353,7 @@
         <v>615781.3273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
     </row>
     <row r="3">
@@ -26375,28 +26375,28 @@
         <v>772716.359832602</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>82072.5863076911</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.251989061176796e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5513.305513714387</v>
+        <v>5513.305513714236</v>
       </c>
       <c r="J3" t="n">
-        <v>117645.8083747603</v>
+        <v>117645.8083747604</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82072.58630769112</v>
+        <v>82072.58630769115</v>
       </c>
       <c r="M3" t="n">
-        <v>83116.34778166644</v>
+        <v>83116.34778166634</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>163004.0018414733</v>
+        <v>163004.0018414734</v>
       </c>
       <c r="F4" t="n">
         <v>163004.0018414733</v>
@@ -26433,28 +26433,28 @@
         <v>223044.3036551686</v>
       </c>
       <c r="H4" t="n">
-        <v>223044.3036551686</v>
+        <v>223044.3036551687</v>
       </c>
       <c r="I4" t="n">
-        <v>226370.2568408588</v>
+        <v>226370.2568408587</v>
       </c>
       <c r="J4" t="n">
-        <v>220281.1519626311</v>
+        <v>220281.151962631</v>
       </c>
       <c r="K4" t="n">
-        <v>220281.1519626311</v>
+        <v>220281.151962631</v>
       </c>
       <c r="L4" t="n">
-        <v>220281.1519626311</v>
+        <v>220281.151962631</v>
       </c>
       <c r="M4" t="n">
         <v>224929.7014547807</v>
       </c>
       <c r="N4" t="n">
-        <v>224929.7014547807</v>
+        <v>224929.7014547808</v>
       </c>
       <c r="O4" t="n">
-        <v>224929.7014547807</v>
+        <v>224929.7014547808</v>
       </c>
       <c r="P4" t="n">
         <v>224929.7014547807</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48171.19399098466</v>
+        <v>48171.19399098465</v>
       </c>
       <c r="F5" t="n">
         <v>48171.19399098466</v>
@@ -26485,10 +26485,10 @@
         <v>56795.89431386127</v>
       </c>
       <c r="H5" t="n">
-        <v>56795.89431386127</v>
+        <v>56795.8943138613</v>
       </c>
       <c r="I5" t="n">
-        <v>58056.45280767648</v>
+        <v>58056.45280767647</v>
       </c>
       <c r="J5" t="n">
         <v>74227.09658214747</v>
@@ -26500,13 +26500,13 @@
         <v>74227.09658214747</v>
       </c>
       <c r="M5" t="n">
-        <v>61132.80383507977</v>
+        <v>61132.80383507979</v>
       </c>
       <c r="N5" t="n">
-        <v>61132.80383507979</v>
+        <v>61132.8038350798</v>
       </c>
       <c r="O5" t="n">
-        <v>61132.80383507977</v>
+        <v>61132.8038350798</v>
       </c>
       <c r="P5" t="n">
         <v>61132.80383507977</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123054.2932122411</v>
+        <v>123049.8796343731</v>
       </c>
       <c r="C6" t="n">
-        <v>123054.293212241</v>
+        <v>123049.879634373</v>
       </c>
       <c r="D6" t="n">
-        <v>123054.2932122412</v>
+        <v>123049.879634373</v>
       </c>
       <c r="E6" t="n">
-        <v>-451807.9230224324</v>
+        <v>-452086.9153382845</v>
       </c>
       <c r="F6" t="n">
-        <v>320908.4368101697</v>
+        <v>320629.4444943168</v>
       </c>
       <c r="G6" t="n">
-        <v>249065.0738526254</v>
+        <v>249049.0622883962</v>
       </c>
       <c r="H6" t="n">
-        <v>331137.6601603168</v>
+        <v>331121.6485960875</v>
       </c>
       <c r="I6" t="n">
-        <v>325841.3122359628</v>
+        <v>325841.3122359632</v>
       </c>
       <c r="J6" t="n">
-        <v>203627.2704786734</v>
+        <v>203627.2704786733</v>
       </c>
       <c r="K6" t="n">
-        <v>321273.0788534337</v>
+        <v>321273.0788534339</v>
       </c>
       <c r="L6" t="n">
-        <v>239200.4925457429</v>
+        <v>239200.4925457426</v>
       </c>
       <c r="M6" t="n">
         <v>246602.4743266855</v>
@@ -26558,10 +26558,10 @@
         <v>329718.8221083521</v>
       </c>
       <c r="O6" t="n">
-        <v>329718.8221083523</v>
+        <v>329718.8221083521</v>
       </c>
       <c r="P6" t="n">
-        <v>329718.8221083519</v>
+        <v>329718.8221083517</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G2" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="H2" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="I2" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="J2" t="n">
         <v>102.5907328846139</v>
@@ -26716,13 +26716,13 @@
         <v>102.5907328846139</v>
       </c>
       <c r="M2" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="N2" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="O2" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="P2" t="n">
         <v>206.4861676116969</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>696.1009720664225</v>
+        <v>696.1009720664223</v>
       </c>
       <c r="F3" t="n">
         <v>696.1009720664226</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="F4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="G4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="H4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187313</v>
       </c>
       <c r="I4" t="n">
-        <v>379.7571799827971</v>
+        <v>379.7571799827967</v>
       </c>
       <c r="J4" t="n">
         <v>829.3979452010338</v>
@@ -26820,13 +26820,13 @@
         <v>829.3979452010338</v>
       </c>
       <c r="M4" t="n">
-        <v>470.3736351823027</v>
+        <v>470.3736351823031</v>
       </c>
       <c r="N4" t="n">
-        <v>470.3736351823029</v>
+        <v>470.3736351823034</v>
       </c>
       <c r="O4" t="n">
-        <v>470.3736351823029</v>
+        <v>470.3736351823034</v>
       </c>
       <c r="P4" t="n">
         <v>470.3736351823029</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>102.5907328846139</v>
       </c>
       <c r="M2" t="n">
-        <v>103.8954347270831</v>
+        <v>103.8954347270829</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>696.1009720664225</v>
+        <v>696.1009720664223</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.640279090678205e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>20.73286996406597</v>
+        <v>20.7328699640654</v>
       </c>
       <c r="J4" t="n">
-        <v>449.6407652182367</v>
+        <v>449.6407652182372</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.0243100187312</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.640279090678205e-13</v>
       </c>
     </row>
   </sheetData>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="C11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="D11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="E11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="H11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="I11" t="n">
         <v>102.5907328846139</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="U11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="W11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="Y11" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>61.8790887231654</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G12" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="H12" t="n">
-        <v>97.77493159036192</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.84575897668472</v>
+        <v>37.84575897668474</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.195519430263118</v>
+        <v>7.195519430263147</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T12" t="n">
-        <v>132.8374876684366</v>
+        <v>26.81653264509083</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X12" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="C13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="D13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G13" t="n">
-        <v>52.91841524188753</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="H13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="I13" t="n">
-        <v>117.7012615568365</v>
+        <v>33.17017720640909</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.612011923876622</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="U13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V13" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="C14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="D14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="E14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="H14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="I14" t="n">
         <v>102.5907328846139</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="U14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="W14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="Y14" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="G15" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.7749315903619</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.195519430263104</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V15" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="W15" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X15" t="n">
-        <v>71.85781105203853</v>
+        <v>99.72484769985046</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="C16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="D16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="E16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="F16" t="n">
-        <v>132.8374876684366</v>
+        <v>52.91841524188546</v>
       </c>
       <c r="G16" t="n">
-        <v>132.8374876684366</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="I16" t="n">
         <v>117.7012615568365</v>
       </c>
       <c r="J16" t="n">
-        <v>4.61201192387658</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="T16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="U16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="V16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="W16" t="n">
-        <v>132.8374876684366</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="X16" t="n">
-        <v>48.30640331801078</v>
+        <v>132.8374876684368</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>132.8374876684368</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="C17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="D17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="E17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="F17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="G17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="H17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="I17" t="n">
         <v>102.5907328846139</v>
@@ -28618,19 +28618,19 @@
         <v>210.8458716536961</v>
       </c>
       <c r="U17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="V17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="X17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="Y17" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>67.73426883505618</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28658,10 +28658,10 @@
         <v>135.8462433742376</v>
       </c>
       <c r="H18" t="n">
-        <v>37.84197984404912</v>
+        <v>97.7749315903619</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.84575897668471</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.195519430263104</v>
       </c>
       <c r="S18" t="n">
         <v>143.8719671726935</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>37.11397197657067</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>4.836385052177349</v>
+        <v>166.7357153104701</v>
       </c>
       <c r="H19" t="n">
         <v>151.0667339716861</v>
@@ -28770,22 +28770,22 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S19" t="n">
-        <v>202.140769127934</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.5821884959664</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="C20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="D20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="E20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="F20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="G20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="H20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="I20" t="n">
         <v>102.5907328846139</v>
@@ -28855,19 +28855,19 @@
         <v>210.8458716536961</v>
       </c>
       <c r="U20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="V20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="X20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
     </row>
     <row r="21">
@@ -28880,16 +28880,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>74.9297882653178</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8462433742376</v>
@@ -28934,13 +28934,13 @@
         <v>194.1296646068118</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8428772264371</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>66.44568230287942</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7357153104701</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.0667339716861</v>
@@ -29007,25 +29007,25 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>100.1264144490362</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5821884959664</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="V22" t="n">
-        <v>151.3185128357769</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W22" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="C23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="D23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="E23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="F23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="G23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="H23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="I23" t="n">
         <v>102.5907328846139</v>
@@ -29092,19 +29092,19 @@
         <v>210.8458716536961</v>
       </c>
       <c r="U23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="V23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="X23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
     </row>
     <row r="24">
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>73.71693530237344</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8462433742376</v>
@@ -29174,7 +29174,7 @@
         <v>225.8428772264371</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>218.7861476957591</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29196,10 +29196,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>117.7012615568365</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.61201192387658</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.8521551830625</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.140769127934</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.5821884959664</v>
       </c>
       <c r="U25" t="n">
-        <v>187.7884220362349</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>235.4282205530505</v>
+        <v>235.4282205530506</v>
       </c>
       <c r="W25" t="n">
-        <v>235.4282205530505</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>117.370521327898</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29454,28 +29454,28 @@
         <v>102.5907328846139</v>
       </c>
       <c r="J28" t="n">
-        <v>4.61201192387658</v>
+        <v>102.5907328846139</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>102.5907328846139</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>43.75045833231036</v>
       </c>
       <c r="N28" t="n">
-        <v>39.13844640843359</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.5907328846139</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.5907328846139</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>102.5907328846139</v>
@@ -29697,10 +29697,10 @@
         <v>102.5907328846139</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>43.75045833231169</v>
       </c>
       <c r="M31" t="n">
-        <v>43.75045833231104</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>102.5907328846139</v>
       </c>
       <c r="J34" t="n">
-        <v>4.61201192387658</v>
+        <v>102.5907328846139</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>102.5907328846139</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>39.13844640843357</v>
+        <v>43.75045833231093</v>
       </c>
       <c r="P34" t="n">
-        <v>102.5907328846139</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.5907328846139</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>102.5907328846139</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="C35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="D35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="E35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="F35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="G35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="H35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="I35" t="n">
         <v>102.5907328846139</v>
@@ -30037,22 +30037,22 @@
         <v>145.2516237532258</v>
       </c>
       <c r="T35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="U35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="V35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="W35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="X35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.8719671726935</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>194.1296646068118</v>
       </c>
       <c r="U36" t="n">
-        <v>92.96468558395333</v>
+        <v>64.12815376832938</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30156,10 +30156,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.62754613443605</v>
       </c>
       <c r="H37" t="n">
-        <v>33.20769840794715</v>
+        <v>151.0667339716861</v>
       </c>
       <c r="I37" t="n">
         <v>117.7012615568365</v>
@@ -30192,16 +30192,16 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S37" t="n">
-        <v>202.140769127934</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="U37" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="V37" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>206.4861676116968</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="C38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="D38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="E38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="F38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="G38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="H38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="I38" t="n">
         <v>102.5907328846139</v>
@@ -30274,22 +30274,22 @@
         <v>145.2516237532258</v>
       </c>
       <c r="T38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="U38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="V38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="W38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="X38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
     </row>
     <row r="39">
@@ -30305,13 +30305,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.8462433742376</v>
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>91.76744036326046</v>
       </c>
       <c r="T39" t="n">
-        <v>77.03508418712195</v>
+        <v>194.1296646068118</v>
       </c>
       <c r="U39" t="n">
-        <v>206.486167611697</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30381,10 +30381,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30396,7 +30396,7 @@
         <v>166.7357153104701</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.0667339716861</v>
       </c>
       <c r="I40" t="n">
         <v>117.7012615568365</v>
@@ -30432,22 +30432,22 @@
         <v>202.140769127934</v>
       </c>
       <c r="T40" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="V40" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="W40" t="n">
-        <v>206.486167611697</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>4.613355812872101</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.30396327941415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="C41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="D41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="E41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="F41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="G41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="H41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="I41" t="n">
         <v>102.5907328846139</v>
@@ -30511,22 +30511,22 @@
         <v>145.2516237532258</v>
       </c>
       <c r="T41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="U41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="V41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="W41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="X41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
     </row>
     <row r="42">
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>135.8462433742376</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.7749315903619</v>
       </c>
       <c r="I42" t="n">
         <v>37.84575897668471</v>
@@ -30587,16 +30587,16 @@
         <v>7.195519430263104</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.8719671726935</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>194.1296646068118</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>85.76916615368745</v>
       </c>
       <c r="V42" t="n">
-        <v>182.3040468853735</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>84.79283935235323</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30627,13 +30627,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7357153104701</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.0667339716861</v>
       </c>
       <c r="I43" t="n">
         <v>117.7012615568365</v>
@@ -30666,25 +30666,25 @@
         <v>120.8521551830625</v>
       </c>
       <c r="S43" t="n">
-        <v>202.140769127934</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>206.4861676116969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>206.4861676116969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="X43" t="n">
-        <v>206.4861676116969</v>
+        <v>206.4861676116968</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.9745590011191</v>
+        <v>206.4861676116968</v>
       </c>
     </row>
     <row r="44">
@@ -30776,10 +30776,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8462433742376</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.7749315903619</v>
       </c>
       <c r="I45" t="n">
         <v>37.84575897668471</v>
@@ -30824,13 +30824,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.8719671726935</v>
       </c>
       <c r="T45" t="n">
         <v>194.1296646068118</v>
       </c>
       <c r="U45" t="n">
-        <v>150.304263168291</v>
+        <v>92.96468558395242</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30855,10 +30855,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30867,7 +30867,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7357153104701</v>
+        <v>61.97294461819851</v>
       </c>
       <c r="H46" t="n">
         <v>151.0667339716861</v>
@@ -30906,10 +30906,10 @@
         <v>202.140769127934</v>
       </c>
       <c r="T46" t="n">
-        <v>206.4861676116969</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>206.4861676116969</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -30918,7 +30918,7 @@
         <v>206.4861676116969</v>
       </c>
       <c r="X46" t="n">
-        <v>4.61335581287176</v>
+        <v>206.4861676116969</v>
       </c>
       <c r="Y46" t="n">
         <v>206.4861676116969</v>
@@ -31753,46 +31753,46 @@
         <v>2.798395867603706</v>
       </c>
       <c r="H11" t="n">
-        <v>28.65907167909647</v>
+        <v>28.65907167909646</v>
       </c>
       <c r="I11" t="n">
         <v>107.885156685792</v>
       </c>
       <c r="J11" t="n">
-        <v>237.5103512680303</v>
+        <v>237.5103512680302</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9664483436953</v>
+        <v>355.9664483436952</v>
       </c>
       <c r="L11" t="n">
-        <v>441.6078558768723</v>
+        <v>441.6078558768721</v>
       </c>
       <c r="M11" t="n">
-        <v>491.3738283873697</v>
+        <v>491.3738283873695</v>
       </c>
       <c r="N11" t="n">
-        <v>499.3247706461988</v>
+        <v>499.3247706461986</v>
       </c>
       <c r="O11" t="n">
-        <v>471.4982217377143</v>
+        <v>471.4982217377142</v>
       </c>
       <c r="P11" t="n">
-        <v>402.4128237562478</v>
+        <v>402.4128237562477</v>
       </c>
       <c r="Q11" t="n">
-        <v>302.19527174769</v>
+        <v>302.1952717476898</v>
       </c>
       <c r="R11" t="n">
-        <v>175.7847344183615</v>
+        <v>175.7847344183614</v>
       </c>
       <c r="S11" t="n">
-        <v>63.76844583301953</v>
+        <v>63.76844583301951</v>
       </c>
       <c r="T11" t="n">
         <v>12.24997791043523</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2238716694082965</v>
+        <v>0.2238716694082964</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.49727378897306</v>
+        <v>1.497273788973059</v>
       </c>
       <c r="H12" t="n">
         <v>14.46051264613455</v>
       </c>
       <c r="I12" t="n">
-        <v>51.55087387473036</v>
+        <v>51.55087387473034</v>
       </c>
       <c r="J12" t="n">
         <v>141.4595381064416</v>
       </c>
       <c r="K12" t="n">
-        <v>241.7768819676366</v>
+        <v>241.7768819676365</v>
       </c>
       <c r="L12" t="n">
-        <v>325.0988549259269</v>
+        <v>325.0988549259268</v>
       </c>
       <c r="M12" t="n">
-        <v>379.3750297762002</v>
+        <v>379.3750297762001</v>
       </c>
       <c r="N12" t="n">
-        <v>389.4159579487433</v>
+        <v>389.4159579487432</v>
       </c>
       <c r="O12" t="n">
-        <v>356.2395229404455</v>
+        <v>356.2395229404454</v>
       </c>
       <c r="P12" t="n">
-        <v>285.9136237908293</v>
+        <v>285.9136237908292</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.1256857643506</v>
+        <v>191.1256857643505</v>
       </c>
       <c r="R12" t="n">
-        <v>92.96231472238001</v>
+        <v>92.96231472237999</v>
       </c>
       <c r="S12" t="n">
-        <v>27.81120393114432</v>
+        <v>27.81120393114431</v>
       </c>
       <c r="T12" t="n">
-        <v>6.035064088009831</v>
+        <v>6.035064088009829</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09850485453770134</v>
+        <v>0.0985048545377013</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.255264047988631</v>
+        <v>1.25526404798863</v>
       </c>
       <c r="H13" t="n">
         <v>11.16043853575347</v>
       </c>
       <c r="I13" t="n">
-        <v>37.74921337042174</v>
+        <v>37.74921337042173</v>
       </c>
       <c r="J13" t="n">
-        <v>88.74716819279618</v>
+        <v>88.74716819279615</v>
       </c>
       <c r="K13" t="n">
         <v>145.8388593935881</v>
@@ -31926,10 +31926,10 @@
         <v>186.6235294618733</v>
       </c>
       <c r="M13" t="n">
-        <v>196.7683452678905</v>
+        <v>196.7683452678904</v>
       </c>
       <c r="N13" t="n">
-        <v>192.0896338162967</v>
+        <v>192.0896338162966</v>
       </c>
       <c r="O13" t="n">
         <v>177.4258674375203</v>
@@ -31941,16 +31941,16 @@
         <v>105.1112467820298</v>
       </c>
       <c r="R13" t="n">
-        <v>56.44123619410696</v>
+        <v>56.44123619410694</v>
       </c>
       <c r="S13" t="n">
-        <v>21.87582890903822</v>
+        <v>21.87582890903821</v>
       </c>
       <c r="T13" t="n">
-        <v>5.363400932315057</v>
+        <v>5.363400932315055</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06846894807210721</v>
+        <v>0.06846894807210718</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.46444674134401</v>
+        <v>56.46444674134395</v>
       </c>
       <c r="K11" t="n">
-        <v>135.8765972987147</v>
+        <v>135.8765972987146</v>
       </c>
       <c r="L11" t="n">
-        <v>205.8414409068851</v>
+        <v>205.8414409068849</v>
       </c>
       <c r="M11" t="n">
-        <v>261.0275951600969</v>
+        <v>261.0275951600968</v>
       </c>
       <c r="N11" t="n">
-        <v>269.9117070496079</v>
+        <v>269.9117070496077</v>
       </c>
       <c r="O11" t="n">
-        <v>241.4000103160276</v>
+        <v>241.4000103160275</v>
       </c>
       <c r="P11" t="n">
-        <v>171.1798280009783</v>
+        <v>171.1798280009781</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.88958187324047</v>
+        <v>79.88958187324036</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>140.7129467801838</v>
+        <v>118.1195767838221</v>
       </c>
       <c r="K12" t="n">
-        <v>103.9354429932776</v>
+        <v>103.9354429932775</v>
       </c>
       <c r="L12" t="n">
-        <v>186.5444751460527</v>
+        <v>186.5444751460526</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2409958541819</v>
+        <v>237.2409958541818</v>
       </c>
       <c r="N12" t="n">
-        <v>258.07424586541</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="O12" t="n">
-        <v>213.6432784960011</v>
+        <v>213.643278496001</v>
       </c>
       <c r="P12" t="n">
-        <v>151.9392163764991</v>
+        <v>151.939216376499</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.5006058352891</v>
+        <v>51.143911678329</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>123.5693675677053</v>
       </c>
       <c r="L13" t="n">
-        <v>214.2135547221895</v>
+        <v>214.2135547221894</v>
       </c>
       <c r="M13" t="n">
-        <v>236.3522222297311</v>
+        <v>236.352222229731</v>
       </c>
       <c r="N13" t="n">
-        <v>236.2218061955253</v>
+        <v>236.2218061955252</v>
       </c>
       <c r="O13" t="n">
         <v>202.01099535156</v>
@@ -35586,7 +35586,7 @@
         <v>149.0970401234456</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.94920353033541</v>
+        <v>18.94920353033538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>14.62191143977495</v>
       </c>
       <c r="K15" t="n">
-        <v>103.9354429932777</v>
+        <v>308.3831724906447</v>
       </c>
       <c r="L15" t="n">
         <v>186.5444751460528</v>
@@ -35744,7 +35744,7 @@
         <v>151.9392163764991</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.5916411756976</v>
+        <v>51.14391167832912</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>103.9354429932777</v>
       </c>
       <c r="L18" t="n">
-        <v>359.0243100187312</v>
+        <v>186.5444751460528</v>
       </c>
       <c r="M18" t="n">
         <v>237.240995854182</v>
@@ -35975,10 +35975,10 @@
         <v>258.07424586541</v>
       </c>
       <c r="O18" t="n">
-        <v>213.6432784960011</v>
+        <v>359.0243100187308</v>
       </c>
       <c r="P18" t="n">
-        <v>183.9071110011892</v>
+        <v>211.0059143511365</v>
       </c>
       <c r="Q18" t="n">
         <v>51.14391167832912</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.46444674134374</v>
+        <v>56.46444674134406</v>
       </c>
       <c r="K20" t="n">
         <v>135.8765972987148</v>
@@ -36200,7 +36200,7 @@
         <v>14.62191143977495</v>
       </c>
       <c r="K21" t="n">
-        <v>308.383172490646</v>
+        <v>103.9354429932777</v>
       </c>
       <c r="L21" t="n">
         <v>186.5444751460528</v>
@@ -36218,7 +36218,7 @@
         <v>151.9392163764991</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.14391167832912</v>
+        <v>255.591641175698</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>205.8414409068851</v>
       </c>
       <c r="M23" t="n">
-        <v>317.2057668234289</v>
+        <v>261.027595160097</v>
       </c>
       <c r="N23" t="n">
         <v>269.9117070496079</v>
@@ -36373,13 +36373,13 @@
         <v>241.4000103160277</v>
       </c>
       <c r="P23" t="n">
-        <v>171.1798280009783</v>
+        <v>253.2736161415203</v>
       </c>
       <c r="Q23" t="n">
         <v>79.88958187324053</v>
       </c>
       <c r="R23" t="n">
-        <v>25.91561647721184</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>14.62191143977495</v>
       </c>
       <c r="K24" t="n">
-        <v>103.9354429932777</v>
+        <v>368.4006800058563</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2680291776669</v>
+        <v>186.5444751460528</v>
       </c>
       <c r="M24" t="n">
         <v>237.240995854182</v>
@@ -36452,7 +36452,7 @@
         <v>213.6432784960011</v>
       </c>
       <c r="P24" t="n">
-        <v>379.7571799827971</v>
+        <v>174.0154970018312</v>
       </c>
       <c r="Q24" t="n">
         <v>51.14391167832912</v>
@@ -36595,13 +36595,13 @@
         <v>225.5610619134178</v>
       </c>
       <c r="K26" t="n">
-        <v>460.0220098698795</v>
+        <v>143.9476737769376</v>
       </c>
       <c r="L26" t="n">
-        <v>222.828154025839</v>
+        <v>623.5026554573355</v>
       </c>
       <c r="M26" t="n">
-        <v>261.027595160097</v>
+        <v>710.5411286529295</v>
       </c>
       <c r="N26" t="n">
         <v>707.2586314615921</v>
@@ -36610,10 +36610,10 @@
         <v>622.2001915787731</v>
       </c>
       <c r="P26" t="n">
-        <v>492.978536172461</v>
+        <v>171.1798280009783</v>
       </c>
       <c r="Q26" t="n">
-        <v>292.2045725331452</v>
+        <v>79.88958187324053</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>557.3848204495119</v>
       </c>
       <c r="M27" t="n">
-        <v>237.240995854182</v>
+        <v>309.3458809280627</v>
       </c>
       <c r="N27" t="n">
         <v>258.07424586541</v>
       </c>
       <c r="O27" t="n">
-        <v>285.7481635698819</v>
+        <v>213.6432784960011</v>
       </c>
       <c r="P27" t="n">
         <v>470.4019850164363</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>97.97872096073733</v>
       </c>
       <c r="K28" t="n">
         <v>123.5693675677053</v>
       </c>
       <c r="L28" t="n">
-        <v>214.2135547221895</v>
+        <v>316.8042876068034</v>
       </c>
       <c r="M28" t="n">
-        <v>236.3522222297311</v>
+        <v>280.1026805620415</v>
       </c>
       <c r="N28" t="n">
-        <v>275.3602526039589</v>
+        <v>236.2218061955253</v>
       </c>
       <c r="O28" t="n">
         <v>202.01099535156</v>
       </c>
       <c r="P28" t="n">
-        <v>251.6877730080596</v>
+        <v>149.0970401234457</v>
       </c>
       <c r="Q28" t="n">
-        <v>121.5399364149493</v>
+        <v>18.94920353033542</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.46444674134406</v>
+        <v>225.5610619134178</v>
       </c>
       <c r="K29" t="n">
-        <v>460.0220098698795</v>
+        <v>143.9476737769376</v>
       </c>
       <c r="L29" t="n">
         <v>623.5026554573355</v>
@@ -36844,7 +36844,7 @@
         <v>707.2586314615921</v>
       </c>
       <c r="O29" t="n">
-        <v>475.222470657905</v>
+        <v>622.2001915787731</v>
       </c>
       <c r="P29" t="n">
         <v>171.1798280009783</v>
@@ -36923,13 +36923,13 @@
         <v>737.4166202089636</v>
       </c>
       <c r="O30" t="n">
-        <v>607.5055977727307</v>
+        <v>420.5601117727121</v>
       </c>
       <c r="P30" t="n">
-        <v>175.0710181123299</v>
+        <v>151.9392163764991</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.14391167832912</v>
+        <v>261.2211994141782</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.97872096073732</v>
+        <v>97.97872096073728</v>
       </c>
       <c r="K31" t="n">
         <v>226.1601004523192</v>
       </c>
       <c r="L31" t="n">
-        <v>214.2135547221895</v>
+        <v>257.9640130545012</v>
       </c>
       <c r="M31" t="n">
-        <v>280.1026805620422</v>
+        <v>236.3522222297311</v>
       </c>
       <c r="N31" t="n">
         <v>236.2218061955253</v>
@@ -37069,25 +37069,25 @@
         <v>225.5610619134178</v>
       </c>
       <c r="K32" t="n">
-        <v>460.0220098698795</v>
+        <v>143.9476737769376</v>
       </c>
       <c r="L32" t="n">
         <v>623.5026554573355</v>
       </c>
       <c r="M32" t="n">
-        <v>297.7000181405847</v>
+        <v>710.5411286529295</v>
       </c>
       <c r="N32" t="n">
-        <v>269.9117070496079</v>
+        <v>707.2586314615921</v>
       </c>
       <c r="O32" t="n">
         <v>622.2001915787731</v>
       </c>
       <c r="P32" t="n">
-        <v>492.978536172461</v>
+        <v>171.1798280009783</v>
       </c>
       <c r="Q32" t="n">
-        <v>292.2045725331452</v>
+        <v>79.88958187324053</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>97.97872096073732</v>
       </c>
       <c r="K34" t="n">
         <v>123.5693675677053</v>
@@ -37233,19 +37233,19 @@
         <v>214.2135547221895</v>
       </c>
       <c r="M34" t="n">
-        <v>236.3522222297311</v>
+        <v>338.942955114345</v>
       </c>
       <c r="N34" t="n">
         <v>236.2218061955253</v>
       </c>
       <c r="O34" t="n">
-        <v>241.1494417599936</v>
+        <v>245.761453683871</v>
       </c>
       <c r="P34" t="n">
-        <v>251.6877730080596</v>
+        <v>149.0970401234457</v>
       </c>
       <c r="Q34" t="n">
-        <v>121.5399364149493</v>
+        <v>18.94920353033542</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>135.8765972987148</v>
       </c>
       <c r="L35" t="n">
-        <v>205.8414409068851</v>
+        <v>236.9318107733995</v>
       </c>
       <c r="M35" t="n">
-        <v>470.3736351823027</v>
+        <v>470.3736351823031</v>
       </c>
       <c r="N35" t="n">
-        <v>470.3736351823027</v>
+        <v>470.3736351823031</v>
       </c>
       <c r="O35" t="n">
         <v>241.4000103160277</v>
@@ -37324,7 +37324,7 @@
         <v>171.1798280009783</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.9799517397539</v>
+        <v>79.88958187324053</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>14.62191143977495</v>
       </c>
       <c r="K36" t="n">
-        <v>368.4006800058563</v>
+        <v>103.9354429932777</v>
       </c>
       <c r="L36" t="n">
-        <v>186.5444751460528</v>
+        <v>409.5138656120953</v>
       </c>
       <c r="M36" t="n">
         <v>237.240995854182</v>
       </c>
       <c r="N36" t="n">
-        <v>258.07424586541</v>
+        <v>470.3736351823031</v>
       </c>
       <c r="O36" t="n">
         <v>213.6432784960011</v>
       </c>
       <c r="P36" t="n">
-        <v>470.3736351823027</v>
+        <v>151.9392163764991</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.5903233787299</v>
+        <v>261.2211994141782</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.46444674134406</v>
+        <v>225.5610619134178</v>
       </c>
       <c r="K38" t="n">
         <v>135.8765972987148</v>
@@ -37558,7 +37558,7 @@
         <v>241.4000103160277</v>
       </c>
       <c r="P38" t="n">
-        <v>399.7631753624886</v>
+        <v>230.6665601904165</v>
       </c>
       <c r="Q38" t="n">
         <v>292.2045725331452</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.62191143977495</v>
+        <v>140.7129467801838</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7698039704083</v>
+        <v>368.4006800058563</v>
       </c>
       <c r="L39" t="n">
         <v>186.5444751460528</v>
@@ -37637,7 +37637,7 @@
         <v>213.6432784960011</v>
       </c>
       <c r="P39" t="n">
-        <v>470.3736351823029</v>
+        <v>196.6517238064481</v>
       </c>
       <c r="Q39" t="n">
         <v>261.2211994141782</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>56.46444674134406</v>
+        <v>225.5610619134178</v>
       </c>
       <c r="K41" t="n">
         <v>135.8765972987148</v>
@@ -37795,7 +37795,7 @@
         <v>241.4000103160277</v>
       </c>
       <c r="P41" t="n">
-        <v>399.7631753624886</v>
+        <v>230.6665601904165</v>
       </c>
       <c r="Q41" t="n">
         <v>292.2045725331452</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.62191143977495</v>
+        <v>140.7129467801838</v>
       </c>
       <c r="K42" t="n">
-        <v>220.7698039704083</v>
+        <v>368.4006800058563</v>
       </c>
       <c r="L42" t="n">
         <v>186.5444751460528</v>
@@ -37874,7 +37874,7 @@
         <v>213.6432784960011</v>
       </c>
       <c r="P42" t="n">
-        <v>470.3736351823029</v>
+        <v>196.6517238064481</v>
       </c>
       <c r="Q42" t="n">
         <v>261.2211994141782</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.46444674134406</v>
+        <v>225.5610619134178</v>
       </c>
       <c r="K44" t="n">
-        <v>135.8765972987148</v>
+        <v>407.6783201480557</v>
       </c>
       <c r="L44" t="n">
         <v>205.8414409068851</v>
@@ -38032,10 +38032,10 @@
         <v>241.4000103160277</v>
       </c>
       <c r="P44" t="n">
-        <v>470.3736351823029</v>
+        <v>171.1798280009783</v>
       </c>
       <c r="Q44" t="n">
-        <v>221.5941127133309</v>
+        <v>79.88958187324053</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.62191143977495</v>
+        <v>140.7129467801838</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7698039704083</v>
+        <v>368.4006800058563</v>
       </c>
       <c r="L45" t="n">
         <v>186.5444751460528</v>
@@ -38111,7 +38111,7 @@
         <v>213.6432784960011</v>
       </c>
       <c r="P45" t="n">
-        <v>470.3736351823029</v>
+        <v>196.6517238064462</v>
       </c>
       <c r="Q45" t="n">
         <v>261.2211994141782</v>
